--- a/resultados_completos2.xlsx
+++ b/resultados_completos2.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,13 +445,17 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -462,42 +466,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Imagen_num</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Tiempo (s)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Angulo_izq</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Angulo_der</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Perimetro_izq</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Perimetro_der</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Asimetria_perimetro</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Factor_esparcimiento</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tipo_angulo</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Centroide_x (µm)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Centroide_y (µm)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Centroide_estable</t>
         </is>
       </c>
     </row>
@@ -507,31 +531,43 @@
           <t>TP4_Gota_0001.jpg</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v/>
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
         <v/>
       </c>
       <c r="E2" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>366.668339483559</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="G2" s="4" t="n">
         <v>58.63389410766994</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="H2" s="4" t="n">
         <v>0.7242718731450407</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="I2" s="4" t="n">
         <v>0.2900763358778626</v>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M2" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -540,31 +576,43 @@
           <t>TP4_Gota_0002.jpg</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>4.869023273931249e-05</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v/>
-      </c>
       <c r="D3" s="4" t="n">
         <v/>
       </c>
       <c r="E3" s="4" t="n">
-        <v>105.0276109071696</v>
+        <v/>
       </c>
       <c r="F3" s="4" t="n">
         <v>105.0276109071696</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>105.0276109071696</v>
+      </c>
+      <c r="H3" s="4" t="n">
         <v>2.706117866046196e-16</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="I3" s="4" t="n">
         <v>0.4351145038167938</v>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M3" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -573,31 +621,43 @@
           <t>TP4_Gota_0003.jpg</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>9.738046547862498e-05</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v/>
-      </c>
       <c r="D4" s="4" t="n">
         <v/>
       </c>
       <c r="E4" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>1217.423516191456</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="G4" s="4" t="n">
         <v>1200.904021829024</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.006830958215012684</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="I4" s="4" t="n">
         <v>0.5114503816793892</v>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -606,31 +666,43 @@
           <t>TP4_Gota_0004.jpg</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>0.0001460706982179375</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v/>
-      </c>
       <c r="D5" s="4" t="n">
         <v/>
       </c>
       <c r="E5" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F5" s="4" t="n">
         <v>1755.432608078406</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="G5" s="4" t="n">
         <v>1879.718463917815</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="H5" s="4" t="n">
         <v>0.03419001119289324</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="I5" s="4" t="n">
         <v>0.5648854961832062</v>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M5" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -639,31 +711,43 @@
           <t>TP4_Gota_0005.jpg</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>0.00019476093095725</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v/>
-      </c>
       <c r="D6" s="4" t="n">
         <v/>
       </c>
       <c r="E6" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>4227.458537653898</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="G6" s="4" t="n">
         <v>3663.401628095888</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="H6" s="4" t="n">
         <v>0.07148230962275758</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="I6" s="4" t="n">
         <v>0.5877862595419848</v>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M6" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -672,31 +756,43 @@
           <t>TP4_Gota_0006.jpg</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>0.0002434511636965625</v>
       </c>
-      <c r="C7" s="4" t="n">
-        <v/>
-      </c>
       <c r="D7" s="4" t="n">
         <v/>
       </c>
       <c r="E7" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F7" s="4" t="n">
         <v>3198.185271684031</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="G7" s="4" t="n">
         <v>3094.490961385176</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="H7" s="4" t="n">
         <v>0.01647857071589389</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="I7" s="4" t="n">
         <v>0.5877862595419848</v>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M7" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -705,31 +801,43 @@
           <t>TP4_Gota_0007.jpg</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>0.000292141396435875</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <v/>
-      </c>
       <c r="D8" s="4" t="n">
         <v/>
       </c>
       <c r="E8" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F8" s="4" t="n">
         <v>3344.605877817608</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="G8" s="4" t="n">
         <v>3328.086235335327</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="H8" s="4" t="n">
         <v>0.002475708784722414</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="I8" s="4" t="n">
         <v>0.5877862595419848</v>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M8" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -738,31 +846,43 @@
           <t>TP4_Gota_0008.jpg</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>0.0003408316291751875</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v/>
-      </c>
       <c r="D9" s="4" t="n">
         <v/>
       </c>
       <c r="E9" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F9" s="4" t="n">
         <v>4439.197856567715</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="G9" s="4" t="n">
         <v>4356.5628460292</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="H9" s="4" t="n">
         <v>0.009394867974763995</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="I9" s="4" t="n">
         <v>0.5877862595419848</v>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M9" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -771,31 +891,43 @@
           <t>TP4_Gota_0009.jpg</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>0.0003895218619144999</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v/>
-      </c>
       <c r="D10" s="4" t="n">
         <v/>
       </c>
       <c r="E10" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F10" s="4" t="n">
         <v>4304.969580384725</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="G10" s="4" t="n">
         <v>5910.195688692672</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="H10" s="4" t="n">
         <v>0.1571414721176533</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="I10" s="4" t="n">
         <v>0.5801526717557253</v>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M10" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -804,31 +936,43 @@
           <t>TP4_Gota_0010.jpg</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>0.0004382120946538125</v>
       </c>
-      <c r="C11" s="4" t="n">
-        <v/>
-      </c>
       <c r="D11" s="4" t="n">
         <v/>
       </c>
       <c r="E11" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F11" s="4" t="n">
         <v>6091.280729779553</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="G11" s="4" t="n">
         <v>6684.838499802649</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="H11" s="4" t="n">
         <v>0.04645837748983704</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="I11" s="4" t="n">
         <v>0.5801526717557253</v>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M11" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -837,31 +981,43 @@
           <t>TP4_Gota_0011.jpg</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>0.0004869023273931249</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <v/>
-      </c>
       <c r="D12" s="4" t="n">
         <v/>
       </c>
       <c r="E12" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F12" s="4" t="n">
         <v>3904.533388947223</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="G12" s="4" t="n">
         <v>4432.031153037247</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="H12" s="4" t="n">
         <v>0.06327519704711085</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="I12" s="4" t="n">
         <v>0.6104417670682732</v>
       </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M12" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,31 +1026,43 @@
           <t>TP4_Gota_0012.jpg</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>0.0005355925601324374</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <v/>
-      </c>
       <c r="D13" s="4" t="n">
         <v/>
       </c>
       <c r="E13" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F13" s="4" t="n">
         <v>3462.833101936801</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="G13" s="4" t="n">
         <v>5217.655267500805</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="H13" s="4" t="n">
         <v>0.2021570781365722</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="I13" s="4" t="n">
         <v>0.6553191489361704</v>
       </c>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M13" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -903,31 +1071,43 @@
           <t>TP4_Gota_0013.jpg</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>0.0005842827928717499</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v/>
-      </c>
       <c r="D14" s="4" t="n">
         <v/>
       </c>
       <c r="E14" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F14" s="4" t="n">
         <v>3761.242645585879</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="G14" s="4" t="n">
         <v>4993.726502562814</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="H14" s="4" t="n">
         <v>0.1407753512458184</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="I14" s="4" t="n">
         <v>0.7031963470319635</v>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M14" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -936,31 +1116,43 @@
           <t>TP4_Gota_0014.jpg</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>0.0006329730256110624</v>
       </c>
-      <c r="C15" s="4" t="n">
-        <v/>
-      </c>
       <c r="D15" s="4" t="n">
         <v/>
       </c>
       <c r="E15" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F15" s="4" t="n">
         <v>5656.00822989963</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="G15" s="4" t="n">
         <v>7266.200975724028</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="H15" s="4" t="n">
         <v>0.1246066148753924</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="I15" s="4" t="n">
         <v>0.7512195121951221</v>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M15" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -969,31 +1161,43 @@
           <t>TP4_Gota_0015.jpg</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="n">
         <v>0.0006816632583503749</v>
       </c>
-      <c r="C16" s="4" t="n">
-        <v/>
-      </c>
       <c r="D16" s="4" t="n">
         <v/>
       </c>
       <c r="E16" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="4" t="n">
         <v>4546.341218179256</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="G16" s="4" t="n">
         <v>5604.590922550218</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="H16" s="4" t="n">
         <v>0.104251480524124</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="I16" s="4" t="n">
         <v>0.814814814814815</v>
       </c>
-      <c r="I16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M16" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1002,31 +1206,43 @@
           <t>TP4_Gota_0016.jpg</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>0.0007303534910896875</v>
       </c>
-      <c r="C17" s="4" t="n">
-        <v/>
-      </c>
       <c r="D17" s="4" t="n">
         <v/>
       </c>
       <c r="E17" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F17" s="4" t="n">
         <v>4634.120976108987</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="G17" s="4" t="n">
         <v>5683.993786288067</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="H17" s="4" t="n">
         <v>0.1017504490263277</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="I17" s="4" t="n">
         <v>0.8800000000000001</v>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M17" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1035,31 +1251,43 @@
           <t>TP4_Gota_0017.jpg</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>0.0007790437238289999</v>
       </c>
-      <c r="C18" s="4" t="n">
-        <v/>
-      </c>
       <c r="D18" s="4" t="n">
         <v/>
       </c>
       <c r="E18" s="4" t="n">
+        <v/>
+      </c>
+      <c r="F18" s="4" t="n">
         <v>3914.666559705863</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="G18" s="4" t="n">
         <v>4404.962970066045</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="H18" s="4" t="n">
         <v>0.05893248114061446</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="I18" s="4" t="n">
         <v>0.9685534591194971</v>
       </c>
-      <c r="I18" s="2" t="inlineStr">
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>Pre-contacto</t>
         </is>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M18" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,31 +1296,43 @@
           <t>TP4_Gota_0018.jpg</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>0.0008277339565683124</v>
       </c>
-      <c r="C19" s="4" t="n">
-        <v>56.36782053045268</v>
-      </c>
       <c r="D19" s="4" t="n">
-        <v>37.22170765324616</v>
+        <v>125.3567864921212</v>
       </c>
       <c r="E19" s="4" t="n">
+        <v>142.7782923467538</v>
+      </c>
+      <c r="F19" s="4" t="n">
         <v>4435.301383583978</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="G19" s="4" t="n">
         <v>5019.805406245487</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="H19" s="4" t="n">
         <v>0.0618188705483728</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="I19" s="4" t="n">
         <v>1.076923076923077</v>
       </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>376.0054054054054</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>167.8709459459459</v>
+      </c>
+      <c r="M19" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1101,31 +1341,43 @@
           <t>TP4_Gota_0019.jpg</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>0.0008764241893076249</v>
       </c>
-      <c r="C20" s="4" t="n">
-        <v>72.11915379671761</v>
-      </c>
       <c r="D20" s="4" t="n">
-        <v>97.90402424315285</v>
+        <v>173.4664512514535</v>
       </c>
       <c r="E20" s="4" t="n">
+        <v>131.6894084970054</v>
+      </c>
+      <c r="F20" s="4" t="n">
         <v>5369.456448217998</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="G20" s="4" t="n">
         <v>6276.031681325967</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="H20" s="4" t="n">
         <v>0.07784776584916503</v>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="I20" s="4" t="n">
         <v>1.209302325581395</v>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>376.3509009009009</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>161.7583333333334</v>
+      </c>
+      <c r="M20" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1134,31 +1386,43 @@
           <t>TP4_Gota_0020.jpg</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>0.0009251144220469374</v>
       </c>
-      <c r="C21" s="4" t="n">
-        <v>75.59432951072962</v>
-      </c>
       <c r="D21" s="4" t="n">
-        <v>76.1782045880925</v>
+        <v>120.8776259453938</v>
       </c>
       <c r="E21" s="4" t="n">
+        <v>118.0813931156829</v>
+      </c>
+      <c r="F21" s="4" t="n">
         <v>2372.249596393654</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="G21" s="4" t="n">
         <v>4060.561585633518</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="H21" s="4" t="n">
         <v>0.2624532170253792</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="I21" s="4" t="n">
         <v>1.495652173913044</v>
       </c>
-      <c r="I21" s="2" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>375.0507547169812</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>144.7253301886792</v>
+      </c>
+      <c r="M21" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1167,31 +1431,43 @@
           <t>TP4_Gota_0021.jpg</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>0.0009738046547862498</v>
       </c>
-      <c r="C22" s="4" t="n">
-        <v>81.91090235215309</v>
-      </c>
       <c r="D22" s="4" t="n">
-        <v>77.84990782831778</v>
+        <v>117.9175360363652</v>
       </c>
       <c r="E22" s="4" t="n">
+        <v>130.876295738877</v>
+      </c>
+      <c r="F22" s="4" t="n">
         <v>4690.162996666814</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="G22" s="4" t="n">
         <v>4732.892328613319</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="H22" s="4" t="n">
         <v>0.004534551742667821</v>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="I22" s="4" t="n">
         <v>1.752380952380953</v>
       </c>
-      <c r="I22" s="2" t="inlineStr">
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>374.6303333333333</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>131.1963333333333</v>
+      </c>
+      <c r="M22" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1200,31 +1476,43 @@
           <t>TP4_Gota_0022.jpg</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="n">
         <v>0.001022494887525562</v>
       </c>
-      <c r="C23" s="4" t="n">
-        <v>75.05032869518595</v>
-      </c>
       <c r="D23" s="4" t="n">
-        <v>63.66491265248519</v>
+        <v>148.0478425220967</v>
       </c>
       <c r="E23" s="4" t="n">
+        <v>120.8542044010579</v>
+      </c>
+      <c r="F23" s="4" t="n">
         <v>4995.936757749108</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="G23" s="4" t="n">
         <v>4782.300341340806</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="H23" s="4" t="n">
         <v>0.02184815261108632</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="I23" s="4" t="n">
         <v>2.160919540229885</v>
       </c>
-      <c r="I23" s="2" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>375.3640512820512</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>117.5779230769231</v>
+      </c>
+      <c r="M23" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1233,31 +1521,43 @@
           <t>TP4_Gota_0023.jpg</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="n">
         <v>0.001071185120264875</v>
       </c>
-      <c r="C24" s="4" t="n">
-        <v>91.88198613280457</v>
-      </c>
       <c r="D24" s="4" t="n">
-        <v>64.96485056850594</v>
+        <v>128.9960627404478</v>
       </c>
       <c r="E24" s="4" t="n">
+        <v>172.2465264731974</v>
+      </c>
+      <c r="F24" s="4" t="n">
         <v>3160.90576910424</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="G24" s="4" t="n">
         <v>3444.985114670963</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="H24" s="4" t="n">
         <v>0.04300394156743528</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="I24" s="4" t="n">
         <v>2.240963855421687</v>
       </c>
-      <c r="I24" s="2" t="inlineStr">
+      <c r="J24" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>373.8623036649215</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>116.8184554973822</v>
+      </c>
+      <c r="M24" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1266,31 +1566,43 @@
           <t>TP4_Gota_0024.jpg</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="n">
         <v>0.001119875353004187</v>
       </c>
-      <c r="C25" s="4" t="n">
-        <v>69.85922801952437</v>
-      </c>
       <c r="D25" s="4" t="n">
-        <v>86.22101268634745</v>
+        <v>156.4723849130951</v>
       </c>
       <c r="E25" s="4" t="n">
+        <v>173.6620970671883</v>
+      </c>
+      <c r="F25" s="4" t="n">
         <v>2992.519750988854</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="G25" s="4" t="n">
         <v>2345.913123217489</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="H25" s="4" t="n">
         <v>0.1211229293329823</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="I25" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I25" s="2" t="inlineStr">
+      <c r="J25" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>375.6622842639594</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>124.2459137055838</v>
+      </c>
+      <c r="M25" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1299,31 +1611,43 @@
           <t>TP4_Gota_0025.jpg</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="n">
         <v>0.0011685655857435</v>
       </c>
-      <c r="C26" s="4" t="n">
-        <v>34.89113064472173</v>
-      </c>
       <c r="D26" s="4" t="n">
-        <v>55.96780322110369</v>
+        <v>174.8094777978255</v>
       </c>
       <c r="E26" s="4" t="n">
+        <v>177.0502615042311</v>
+      </c>
+      <c r="F26" s="4" t="n">
         <v>5759.548448582193</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="G26" s="4" t="n">
         <v>6740.13020588654</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="H26" s="4" t="n">
         <v>0.07844855731181385</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="I26" s="4" t="n">
         <v>1.695238095238096</v>
       </c>
-      <c r="I26" s="2" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>374.7143127962086</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>133.6182227488152</v>
+      </c>
+      <c r="M26" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1332,31 +1656,43 @@
           <t>TP4_Gota_0026.jpg</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="n">
         <v>0.001217255818482812</v>
       </c>
-      <c r="C27" s="4" t="n">
-        <v>63.03266781819828</v>
-      </c>
       <c r="D27" s="4" t="n">
-        <v>63.60955035960238</v>
+        <v>147.6283122231632</v>
       </c>
       <c r="E27" s="4" t="n">
+        <v>149.0860360613552</v>
+      </c>
+      <c r="F27" s="4" t="n">
         <v>4980.049077270169</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="G27" s="4" t="n">
         <v>4514.951546108608</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="H27" s="4" t="n">
         <v>0.04898341238824029</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="I27" s="4" t="n">
         <v>1.52212389380531</v>
       </c>
-      <c r="I27" s="2" t="inlineStr">
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>375.9064814814815</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>141.7393055555556</v>
+      </c>
+      <c r="M27" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1365,31 +1701,43 @@
           <t>TP4_Gota_0027.jpg</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="n">
         <v>0.001265946051222125</v>
       </c>
-      <c r="C28" s="4" t="n">
-        <v>72.42634910677897</v>
-      </c>
       <c r="D28" s="4" t="n">
-        <v>61.25000381312208</v>
+        <v>121.1356240696213</v>
       </c>
       <c r="E28" s="4" t="n">
+        <v>145.591754096083</v>
+      </c>
+      <c r="F28" s="4" t="n">
         <v>5512.665327049359</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="G28" s="4" t="n">
         <v>5841.07568351238</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="H28" s="4" t="n">
         <v>0.02892529926105589</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="I28" s="4" t="n">
         <v>1.411764705882353</v>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>376.6896380090497</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>147.7736425339367</v>
+      </c>
+      <c r="M28" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1398,31 +1746,43 @@
           <t>TP4_Gota_0028.jpg</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="n">
         <v>0.001314636283961437</v>
       </c>
-      <c r="C29" s="4" t="n">
-        <v>57.77541175789652</v>
-      </c>
       <c r="D29" s="4" t="n">
-        <v>60.70758544060437</v>
+        <v>122.2245882421035</v>
       </c>
       <c r="E29" s="4" t="n">
+        <v>125.6507670394379</v>
+      </c>
+      <c r="F29" s="4" t="n">
         <v>4660.985952408639</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="G29" s="4" t="n">
         <v>5196.280720007469</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="H29" s="4" t="n">
         <v>0.05430458415990324</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="I29" s="4" t="n">
         <v>1.300813008130081</v>
       </c>
-      <c r="I29" s="2" t="inlineStr">
+      <c r="J29" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>377.3671748878924</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>152.3006950672646</v>
+      </c>
+      <c r="M29" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1431,31 +1791,43 @@
           <t>TP4_Gota_0029.jpg</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="n">
         <v>0.00136332651670075</v>
       </c>
-      <c r="C30" s="4" t="n">
-        <v>79.8890198942767</v>
-      </c>
       <c r="D30" s="4" t="n">
-        <v>80.06900890330961</v>
+        <v>110.4986297794712</v>
       </c>
       <c r="E30" s="4" t="n">
+        <v>112.1156567758924</v>
+      </c>
+      <c r="F30" s="4" t="n">
         <v>4592.833658289425</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="G30" s="4" t="n">
         <v>5679.489196903146</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="H30" s="4" t="n">
         <v>0.1057847921966769</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="I30" s="4" t="n">
         <v>1.25984251968504</v>
       </c>
-      <c r="I30" s="2" t="inlineStr">
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>377.7966666666667</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>156.4483333333334</v>
+      </c>
+      <c r="M30" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1464,31 +1836,43 @@
           <t>TP4_Gota_0030.jpg</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="n">
         <v>0.001412016749440062</v>
       </c>
-      <c r="C31" s="4" t="n">
-        <v>49.02344905895228</v>
-      </c>
       <c r="D31" s="4" t="n">
-        <v>34.74251553037427</v>
+        <v>130.9765509410477</v>
       </c>
       <c r="E31" s="4" t="n">
+        <v>145.2574844696257</v>
+      </c>
+      <c r="F31" s="4" t="n">
         <v>3371.439859706235</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="G31" s="4" t="n">
         <v>4754.998000556346</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="H31" s="4" t="n">
         <v>0.170253949472199</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="I31" s="4" t="n">
         <v>1.221374045801527</v>
       </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>377.3977142857143</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>156.1392857142857</v>
+      </c>
+      <c r="M31" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1497,31 +1881,43 @@
           <t>TP4_Gota_0031.jpg</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="n">
         <v>0.001460706982179375</v>
       </c>
-      <c r="C32" s="4" t="n">
-        <v>49.08013538784815</v>
-      </c>
       <c r="D32" s="4" t="n">
-        <v>46.85376745343151</v>
+        <v>130.9198646121519</v>
       </c>
       <c r="E32" s="4" t="n">
+        <v>133.1462325465685</v>
+      </c>
+      <c r="F32" s="4" t="n">
         <v>5294.146178178601</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="G32" s="4" t="n">
         <v>5837.389471946763</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="H32" s="4" t="n">
         <v>0.04880218784207409</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="I32" s="4" t="n">
         <v>1.170370370370371</v>
       </c>
-      <c r="I32" s="2" t="inlineStr">
+      <c r="J32" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>379.8780555555555</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>158.5952777777778</v>
+      </c>
+      <c r="M32" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1530,31 +1926,43 @@
           <t>TP4_Gota_0032.jpg</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="n">
         <v>0.001509397214918687</v>
       </c>
-      <c r="C33" s="4" t="n">
-        <v>58.75843872118708</v>
-      </c>
       <c r="D33" s="4" t="n">
-        <v>35.86903524938102</v>
+        <v>121.3733319998305</v>
       </c>
       <c r="E33" s="4" t="n">
+        <v>144.1309647506189</v>
+      </c>
+      <c r="F33" s="4" t="n">
         <v>2787.24157330242</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="G33" s="4" t="n">
         <v>4050.692979305235</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="H33" s="4" t="n">
         <v>0.184770912368706</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="I33" s="4" t="n">
         <v>1.153284671532847</v>
       </c>
-      <c r="I33" s="2" t="inlineStr">
+      <c r="J33" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>379.6264230769231</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>158.7985</v>
+      </c>
+      <c r="M33" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1563,31 +1971,43 @@
           <t>TP4_Gota_0033.jpg</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3" t="n">
         <v>0.001558087447658</v>
       </c>
-      <c r="C34" s="4" t="n">
-        <v>45.50593284705303</v>
-      </c>
       <c r="D34" s="4" t="n">
-        <v>57.30278069950418</v>
+        <v>134.494067152947</v>
       </c>
       <c r="E34" s="4" t="n">
+        <v>122.6972193004958</v>
+      </c>
+      <c r="F34" s="4" t="n">
         <v>4733.011590530138</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="G34" s="4" t="n">
         <v>5238.950005383619</v>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="H34" s="4" t="n">
         <v>0.05073609740542934</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="I34" s="4" t="n">
         <v>1.151079136690648</v>
       </c>
-      <c r="I34" s="2" t="inlineStr">
+      <c r="J34" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>381.7697752808989</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>159.8712172284644</v>
+      </c>
+      <c r="M34" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1596,31 +2016,43 @@
           <t>TP4_Gota_0034.jpg</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="n">
         <v>0.001606777680397312</v>
       </c>
-      <c r="C35" s="4" t="n">
-        <v>48.8858144902793</v>
-      </c>
       <c r="D35" s="4" t="n">
-        <v>50.32341003038126</v>
+        <v>145.4810451456834</v>
       </c>
       <c r="E35" s="4" t="n">
+        <v>129.6765899696187</v>
+      </c>
+      <c r="F35" s="4" t="n">
         <v>5582.650270653769</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="G35" s="4" t="n">
         <v>5892.674846196594</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="H35" s="4" t="n">
         <v>0.02701662675226379</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="I35" s="4" t="n">
         <v>1.134751773049645</v>
       </c>
-      <c r="I35" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>382.24119133574</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>157.8718592057762</v>
+      </c>
+      <c r="M35" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1629,31 +2061,43 @@
           <t>TP4_Gota_0035.jpg</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="n">
         <v>0.001655467913136625</v>
       </c>
-      <c r="C36" s="4" t="n">
-        <v>50.81723386182998</v>
-      </c>
       <c r="D36" s="4" t="n">
-        <v>35.52371181001518</v>
+        <v>129.18276613817</v>
       </c>
       <c r="E36" s="4" t="n">
+        <v>144.4762881899848</v>
+      </c>
+      <c r="F36" s="4" t="n">
         <v>4719.635583797555</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="G36" s="4" t="n">
         <v>4841.499499327847</v>
       </c>
-      <c r="G36" s="4" t="n">
+      <c r="H36" s="4" t="n">
         <v>0.01274575816268628</v>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="I36" s="4" t="n">
         <v>1.120567375886525</v>
       </c>
-      <c r="I36" s="2" t="inlineStr">
+      <c r="J36" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>383.8374460431655</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>157.2371223021583</v>
+      </c>
+      <c r="M36" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1662,31 +2106,43 @@
           <t>TP4_Gota_0036.jpg</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3" t="n">
         <v>0.001704158145875937</v>
       </c>
-      <c r="C37" s="4" t="n">
-        <v>38.88852461576539</v>
-      </c>
       <c r="D37" s="4" t="n">
-        <v>52.25297586513778</v>
+        <v>141.1114753842346</v>
       </c>
       <c r="E37" s="4" t="n">
+        <v>127.7470241348622</v>
+      </c>
+      <c r="F37" s="4" t="n">
         <v>4230.134637158292</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="G37" s="4" t="n">
         <v>4096.529217936907</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="H37" s="4" t="n">
         <v>0.016045492113823</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="I37" s="4" t="n">
         <v>1.120567375886525</v>
       </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>384.16375</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>156.6745</v>
+      </c>
+      <c r="M37" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1695,31 +2151,43 @@
           <t>TP4_Gota_0037.jpg</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="n">
         <v>0.00175284837861525</v>
       </c>
-      <c r="C38" s="4" t="n">
-        <v>55.27143557996209</v>
-      </c>
       <c r="D38" s="4" t="n">
-        <v>52.85400054450742</v>
+        <v>147.2836176569644</v>
       </c>
       <c r="E38" s="4" t="n">
+        <v>127.1459994554926</v>
+      </c>
+      <c r="F38" s="4" t="n">
         <v>4219.537018205736</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="G38" s="4" t="n">
         <v>5690.555573729388</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="H38" s="4" t="n">
         <v>0.1484364088304052</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="I38" s="4" t="n">
         <v>1.120567375886525</v>
       </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>384.8301433691756</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>157.4803046594982</v>
+      </c>
+      <c r="M38" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1728,31 +2196,43 @@
           <t>TP4_Gota_0038.jpg</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="n">
         <v>0.001801538611354562</v>
       </c>
-      <c r="C39" s="4" t="n">
-        <v>51.92353553688159</v>
-      </c>
       <c r="D39" s="4" t="n">
-        <v>53.00783551599687</v>
+        <v>128.0764644631184</v>
       </c>
       <c r="E39" s="4" t="n">
+        <v>126.9921644840031</v>
+      </c>
+      <c r="F39" s="4" t="n">
         <v>4193.007318261582</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="G39" s="4" t="n">
         <v>4735.782797482938</v>
       </c>
-      <c r="G39" s="4" t="n">
+      <c r="H39" s="4" t="n">
         <v>0.06078936476110655</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="I39" s="4" t="n">
         <v>1.134751773049645</v>
       </c>
-      <c r="I39" s="2" t="inlineStr">
+      <c r="J39" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>386.2498586572438</v>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v>156.2468021201413</v>
+      </c>
+      <c r="M39" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1761,31 +2241,43 @@
           <t>TP4_Gota_0039.jpg</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="n">
         <v>0.001850228844093875</v>
       </c>
-      <c r="C40" s="4" t="n">
-        <v>48.83048561233184</v>
-      </c>
       <c r="D40" s="4" t="n">
-        <v>55.75668128884857</v>
+        <v>131.1695143876682</v>
       </c>
       <c r="E40" s="4" t="n">
+        <v>148.1920449281762</v>
+      </c>
+      <c r="F40" s="4" t="n">
         <v>5233.258838459575</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="G40" s="4" t="n">
         <v>6101.123025949596</v>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="H40" s="4" t="n">
         <v>0.07656916785335965</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="I40" s="4" t="n">
         <v>1.134751773049645</v>
       </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>386.6382978723404</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>156.383475177305</v>
+      </c>
+      <c r="M40" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1794,31 +2286,43 @@
           <t>TP4_Gota_0040.jpg</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3" t="n">
         <v>0.001898919076833187</v>
       </c>
-      <c r="C41" s="4" t="n">
-        <v>54.16004394485321</v>
-      </c>
       <c r="D41" s="4" t="n">
-        <v>52.36515355624686</v>
+        <v>144.080535472958</v>
       </c>
       <c r="E41" s="4" t="n">
+        <v>127.6348464437531</v>
+      </c>
+      <c r="F41" s="4" t="n">
         <v>3623.212724687402</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="G41" s="4" t="n">
         <v>3995.123148409921</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="H41" s="4" t="n">
         <v>0.04881780350953656</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="I41" s="4" t="n">
         <v>1.120567375886525</v>
       </c>
-      <c r="I41" s="2" t="inlineStr">
+      <c r="J41" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>388.3685611510791</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>156.8062949640288</v>
+      </c>
+      <c r="M41" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1827,31 +2331,43 @@
           <t>TP4_Gota_0041.jpg</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="n">
         <v>0.0019476093095725</v>
       </c>
-      <c r="C42" s="4" t="n">
-        <v>57.62203889686648</v>
-      </c>
       <c r="D42" s="4" t="n">
-        <v>72.41722722911625</v>
+        <v>122.4566941757057</v>
       </c>
       <c r="E42" s="4" t="n">
+        <v>126.1441267154467</v>
+      </c>
+      <c r="F42" s="4" t="n">
         <v>3981.121033917836</v>
       </c>
-      <c r="F42" s="4" t="n">
+      <c r="G42" s="4" t="n">
         <v>5158.608808150218</v>
       </c>
-      <c r="G42" s="4" t="n">
+      <c r="H42" s="4" t="n">
         <v>0.1288317920309503</v>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="I42" s="4" t="n">
         <v>1.136690647482014</v>
       </c>
-      <c r="I42" s="2" t="inlineStr">
+      <c r="J42" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>388.5830769230769</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>156.7508974358974</v>
+      </c>
+      <c r="M42" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1860,31 +2376,43 @@
           <t>TP4_Gota_0042.jpg</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3" t="n">
         <v>0.001996299542311812</v>
       </c>
-      <c r="C43" s="4" t="n">
-        <v>53.11671947207688</v>
-      </c>
       <c r="D43" s="4" t="n">
-        <v>52.63318836406786</v>
+        <v>126.8832805279231</v>
       </c>
       <c r="E43" s="4" t="n">
+        <v>133.3000314692385</v>
+      </c>
+      <c r="F43" s="4" t="n">
         <v>5252.289352125983</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="G43" s="4" t="n">
         <v>5771.215920331266</v>
       </c>
-      <c r="G43" s="4" t="n">
+      <c r="H43" s="4" t="n">
         <v>0.04707455164028863</v>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="I43" s="4" t="n">
         <v>1.151079136690647</v>
       </c>
-      <c r="I43" s="2" t="inlineStr">
+      <c r="J43" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>390.1014444444445</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>158.439037037037</v>
+      </c>
+      <c r="M43" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1893,31 +2421,43 @@
           <t>TP4_Gota_0043.jpg</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3" t="n">
         <v>0.002044989775051125</v>
       </c>
-      <c r="C44" s="4" t="n">
-        <v>54.37070310879949</v>
-      </c>
       <c r="D44" s="4" t="n">
-        <v>54.03932377545818</v>
+        <v>131.4495779946774</v>
       </c>
       <c r="E44" s="4" t="n">
+        <v>125.9606762245418</v>
+      </c>
+      <c r="F44" s="4" t="n">
         <v>4673.775936135275</v>
       </c>
-      <c r="F44" s="4" t="n">
+      <c r="G44" s="4" t="n">
         <v>4048.478894641341</v>
       </c>
-      <c r="G44" s="4" t="n">
+      <c r="H44" s="4" t="n">
         <v>0.07168983865130409</v>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="I44" s="4" t="n">
         <v>1.153284671532847</v>
       </c>
-      <c r="I44" s="2" t="inlineStr">
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>391.5805323193916</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>158.1884220532319</v>
+      </c>
+      <c r="M44" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1926,31 +2466,43 @@
           <t>TP4_Gota_0044.jpg</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" s="3" t="n">
         <v>0.002093680007790437</v>
       </c>
-      <c r="C45" s="4" t="n">
-        <v>70.50323804852854</v>
-      </c>
       <c r="D45" s="4" t="n">
-        <v>38.6371282488378</v>
+        <v>129.3545542233183</v>
       </c>
       <c r="E45" s="4" t="n">
+        <v>141.3628717511622</v>
+      </c>
+      <c r="F45" s="4" t="n">
         <v>4575.481691453339</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="G45" s="4" t="n">
         <v>5262.911348630412</v>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="H45" s="4" t="n">
         <v>0.06987214826408489</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="I45" s="4" t="n">
         <v>1.153284671532847</v>
       </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>391.5746360153257</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>158.0872222222222</v>
+      </c>
+      <c r="M45" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1959,31 +2511,43 @@
           <t>TP4_Gota_0045.jpg</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" s="3" t="n">
         <v>0.00214237024052975</v>
       </c>
-      <c r="C46" s="4" t="n">
-        <v>56.8523344722792</v>
-      </c>
       <c r="D46" s="4" t="n">
-        <v>40.65927482517655</v>
+        <v>131.6180671251588</v>
       </c>
       <c r="E46" s="4" t="n">
+        <v>139.3407251748235</v>
+      </c>
+      <c r="F46" s="4" t="n">
         <v>4631.755549694278</v>
       </c>
-      <c r="F46" s="4" t="n">
+      <c r="G46" s="4" t="n">
         <v>4196.090408001283</v>
       </c>
-      <c r="G46" s="4" t="n">
+      <c r="H46" s="4" t="n">
         <v>0.04935123967735402</v>
       </c>
-      <c r="H46" s="4" t="n">
+      <c r="I46" s="4" t="n">
         <v>1.185185185185185</v>
       </c>
-      <c r="I46" s="2" t="inlineStr">
+      <c r="J46" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>393.0063178294574</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>157.4042248062015</v>
+      </c>
+      <c r="M46" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1992,31 +2556,43 @@
           <t>TP4_Gota_0046.jpg</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" s="3" t="n">
         <v>0.002191060473269062</v>
       </c>
-      <c r="C47" s="4" t="n">
-        <v>61.95834874542307</v>
-      </c>
       <c r="D47" s="4" t="n">
-        <v>43.97764795703586</v>
+        <v>150.6073119559041</v>
       </c>
       <c r="E47" s="4" t="n">
+        <v>136.0223520429641</v>
+      </c>
+      <c r="F47" s="4" t="n">
         <v>6683.276317494438</v>
       </c>
-      <c r="F47" s="4" t="n">
+      <c r="G47" s="4" t="n">
         <v>6409.536544418305</v>
       </c>
-      <c r="G47" s="4" t="n">
+      <c r="H47" s="4" t="n">
         <v>0.02090763657612854</v>
       </c>
-      <c r="H47" s="4" t="n">
+      <c r="I47" s="4" t="n">
         <v>1.203007518796992</v>
       </c>
-      <c r="I47" s="2" t="inlineStr">
+      <c r="J47" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>393.8076470588235</v>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v>155.701</v>
+      </c>
+      <c r="M47" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2025,31 +2601,43 @@
           <t>TP4_Gota_0047.jpg</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" s="3" t="n">
         <v>0.002239750706008375</v>
       </c>
-      <c r="C48" s="4" t="n">
-        <v>41.28573457851226</v>
-      </c>
       <c r="D48" s="4" t="n">
-        <v>43.88622948448926</v>
+        <v>144.1808953960646</v>
       </c>
       <c r="E48" s="4" t="n">
+        <v>154.1434603379575</v>
+      </c>
+      <c r="F48" s="4" t="n">
         <v>6161.115733292952</v>
       </c>
-      <c r="F48" s="4" t="n">
+      <c r="G48" s="4" t="n">
         <v>6256.026134727465</v>
       </c>
-      <c r="G48" s="4" t="n">
+      <c r="H48" s="4" t="n">
         <v>0.007643498193328119</v>
       </c>
-      <c r="H48" s="4" t="n">
+      <c r="I48" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I48" s="2" t="inlineStr">
+      <c r="J48" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>394.9540562248996</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>157.0975702811245</v>
+      </c>
+      <c r="M48" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2058,31 +2646,43 @@
           <t>TP4_Gota_0048.jpg</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" s="3" t="n">
         <v>0.002288440938747687</v>
       </c>
-      <c r="C49" s="4" t="n">
-        <v>43.22881607705838</v>
-      </c>
       <c r="D49" s="4" t="n">
-        <v>63.84753363216125</v>
+        <v>136.7711839229416</v>
       </c>
       <c r="E49" s="4" t="n">
+        <v>126.2821681395015</v>
+      </c>
+      <c r="F49" s="4" t="n">
         <v>4732.464680017116</v>
       </c>
-      <c r="F49" s="4" t="n">
+      <c r="G49" s="4" t="n">
         <v>5140.727944337504</v>
       </c>
-      <c r="G49" s="4" t="n">
+      <c r="H49" s="4" t="n">
         <v>0.04135068359887031</v>
       </c>
-      <c r="H49" s="4" t="n">
+      <c r="I49" s="4" t="n">
         <v>1.206106870229008</v>
       </c>
-      <c r="I49" s="2" t="inlineStr">
+      <c r="J49" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>396.0754285714286</v>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v>156.5438571428571</v>
+      </c>
+      <c r="M49" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2091,31 +2691,43 @@
           <t>TP4_Gota_0049.jpg</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" s="3" t="n">
         <v>0.002337131171487</v>
       </c>
-      <c r="C50" s="4" t="n">
-        <v>49.05486536230069</v>
-      </c>
       <c r="D50" s="4" t="n">
-        <v>50.51996145456236</v>
+        <v>130.9451346376993</v>
       </c>
       <c r="E50" s="4" t="n">
+        <v>144.9201905036057</v>
+      </c>
+      <c r="F50" s="4" t="n">
         <v>4625.691283358196</v>
       </c>
-      <c r="F50" s="4" t="n">
+      <c r="G50" s="4" t="n">
         <v>4811.04809567267</v>
       </c>
-      <c r="G50" s="4" t="n">
+      <c r="H50" s="4" t="n">
         <v>0.01964203999597041</v>
       </c>
-      <c r="H50" s="4" t="n">
+      <c r="I50" s="4" t="n">
         <v>1.221374045801527</v>
       </c>
-      <c r="I50" s="2" t="inlineStr">
+      <c r="J50" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>396.9836585365853</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>156.4027642276423</v>
+      </c>
+      <c r="M50" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2124,31 +2736,43 @@
           <t>TP4_Gota_0050.jpg</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3" t="n">
         <v>0.002385821404226312</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>49.56583406894532</v>
-      </c>
       <c r="D51" s="4" t="n">
-        <v>47.49099491682672</v>
+        <v>130.4341659310547</v>
       </c>
       <c r="E51" s="4" t="n">
+        <v>132.5090050831733</v>
+      </c>
+      <c r="F51" s="4" t="n">
         <v>4538.516384301189</v>
       </c>
-      <c r="F51" s="4" t="n">
+      <c r="G51" s="4" t="n">
         <v>4889.978552547838</v>
       </c>
-      <c r="G51" s="4" t="n">
+      <c r="H51" s="4" t="n">
         <v>0.03727659298760859</v>
       </c>
-      <c r="H51" s="4" t="n">
+      <c r="I51" s="4" t="n">
         <v>1.221374045801527</v>
       </c>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>397.07</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>156.7292857142857</v>
+      </c>
+      <c r="M51" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2157,31 +2781,43 @@
           <t>TP4_Gota_0051.jpg</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" s="3" t="n">
         <v>0.002434511636965625</v>
       </c>
-      <c r="C52" s="4" t="n">
-        <v>67.68865721418737</v>
-      </c>
       <c r="D52" s="4" t="n">
-        <v>74.68053896501125</v>
+        <v>117.5052693820771</v>
       </c>
       <c r="E52" s="4" t="n">
+        <v>127.7064688937179</v>
+      </c>
+      <c r="F52" s="4" t="n">
         <v>3914.949147296112</v>
       </c>
-      <c r="F52" s="4" t="n">
+      <c r="G52" s="4" t="n">
         <v>4433.40786837223</v>
       </c>
-      <c r="G52" s="4" t="n">
+      <c r="H52" s="4" t="n">
         <v>0.06210308448753041</v>
       </c>
-      <c r="H52" s="4" t="n">
+      <c r="I52" s="4" t="n">
         <v>1.206106870229008</v>
       </c>
-      <c r="I52" s="2" t="inlineStr">
+      <c r="J52" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>399.3471074380165</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>157.759173553719</v>
+      </c>
+      <c r="M52" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2190,31 +2826,43 @@
           <t>TP4_Gota_0052.jpg</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3" t="n">
         <v>0.002483201869704937</v>
       </c>
-      <c r="C53" s="4" t="n">
-        <v>47.72798275992088</v>
-      </c>
       <c r="D53" s="4" t="n">
-        <v>34.64871882487895</v>
+        <v>132.2720172400791</v>
       </c>
       <c r="E53" s="4" t="n">
+        <v>145.351281175121</v>
+      </c>
+      <c r="F53" s="4" t="n">
         <v>4585.017241364969</v>
       </c>
-      <c r="F53" s="4" t="n">
+      <c r="G53" s="4" t="n">
         <v>5931.016848551003</v>
       </c>
-      <c r="G53" s="4" t="n">
+      <c r="H53" s="4" t="n">
         <v>0.1279949832491261</v>
       </c>
-      <c r="H53" s="4" t="n">
+      <c r="I53" s="4" t="n">
         <v>1.206106870229008</v>
       </c>
-      <c r="I53" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>399.1712704918032</v>
+      </c>
+      <c r="L53" s="2" t="n">
+        <v>157.0077049180328</v>
+      </c>
+      <c r="M53" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2223,31 +2871,43 @@
           <t>TP4_Gota_0053.jpg</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3" t="n">
         <v>0.00253189210244425</v>
       </c>
-      <c r="C54" s="4" t="n">
-        <v>49.45755848725463</v>
-      </c>
       <c r="D54" s="4" t="n">
-        <v>48.98379397843523</v>
+        <v>130.5424415127454</v>
       </c>
       <c r="E54" s="4" t="n">
+        <v>131.0162060215648</v>
+      </c>
+      <c r="F54" s="4" t="n">
         <v>2818.601310290618</v>
       </c>
-      <c r="F54" s="4" t="n">
+      <c r="G54" s="4" t="n">
         <v>4070.915083043789</v>
       </c>
-      <c r="G54" s="4" t="n">
+      <c r="H54" s="4" t="n">
         <v>0.1817709257452064</v>
       </c>
-      <c r="H54" s="4" t="n">
+      <c r="I54" s="4" t="n">
         <v>1.206106870229008</v>
       </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>399.8791769547324</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>158.0022427983539</v>
+      </c>
+      <c r="M54" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2256,31 +2916,43 @@
           <t>TP4_Gota_0054.jpg</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" s="3" t="n">
         <v>0.002580582335183562</v>
       </c>
-      <c r="C55" s="4" t="n">
-        <v>46.00444656435715</v>
-      </c>
       <c r="D55" s="4" t="n">
-        <v>59.31301480429947</v>
+        <v>133.9955534356428</v>
       </c>
       <c r="E55" s="4" t="n">
+        <v>123.2536202462625</v>
+      </c>
+      <c r="F55" s="4" t="n">
         <v>4634.504224007361</v>
       </c>
-      <c r="F55" s="4" t="n">
+      <c r="G55" s="4" t="n">
         <v>5770.681496140324</v>
       </c>
-      <c r="G55" s="4" t="n">
+      <c r="H55" s="4" t="n">
         <v>0.1091933678735758</v>
       </c>
-      <c r="H55" s="4" t="n">
+      <c r="I55" s="4" t="n">
         <v>1.203007518796992</v>
       </c>
-      <c r="I55" s="2" t="inlineStr">
+      <c r="J55" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>401.5925403225806</v>
+      </c>
+      <c r="L55" s="2" t="n">
+        <v>158.6552822580645</v>
+      </c>
+      <c r="M55" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2289,31 +2961,43 @@
           <t>TP4_Gota_0055.jpg</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3" t="n">
         <v>0.002629272567922875</v>
       </c>
-      <c r="C56" s="4" t="n">
-        <v>78.25500375292724</v>
-      </c>
       <c r="D56" s="4" t="n">
-        <v>33.34309948739582</v>
+        <v>129.9988424839874</v>
       </c>
       <c r="E56" s="4" t="n">
+        <v>146.6569005126042</v>
+      </c>
+      <c r="F56" s="4" t="n">
         <v>6326.848836637468</v>
       </c>
-      <c r="F56" s="4" t="n">
+      <c r="G56" s="4" t="n">
         <v>6446.517331178876</v>
       </c>
-      <c r="G56" s="4" t="n">
+      <c r="H56" s="4" t="n">
         <v>0.009368595010054886</v>
       </c>
-      <c r="H56" s="4" t="n">
+      <c r="I56" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I56" s="2" t="inlineStr">
+      <c r="J56" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>402.7915725806452</v>
+      </c>
+      <c r="L56" s="2" t="n">
+        <v>157.9225403225807</v>
+      </c>
+      <c r="M56" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2322,31 +3006,43 @@
           <t>TP4_Gota_0056.jpg</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" s="3" t="n">
         <v>0.002677962800662187</v>
       </c>
-      <c r="C57" s="4" t="n">
-        <v>45.92743305615181</v>
-      </c>
       <c r="D57" s="4" t="n">
-        <v>53.50904091033942</v>
+        <v>134.0725669438482</v>
       </c>
       <c r="E57" s="4" t="n">
+        <v>126.4909590896606</v>
+      </c>
+      <c r="F57" s="4" t="n">
         <v>5195.029317829663</v>
       </c>
-      <c r="F57" s="4" t="n">
+      <c r="G57" s="4" t="n">
         <v>5758.974568303533</v>
       </c>
-      <c r="G57" s="4" t="n">
+      <c r="H57" s="4" t="n">
         <v>0.05148302450282816</v>
       </c>
-      <c r="H57" s="4" t="n">
+      <c r="I57" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>403.5026720647774</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>158.9046761133603</v>
+      </c>
+      <c r="M57" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2355,31 +3051,43 @@
           <t>TP4_Gota_0057.jpg</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" s="3" t="n">
         <v>0.0027266530334015</v>
       </c>
-      <c r="C58" s="4" t="n">
-        <v>41.29976570603549</v>
-      </c>
       <c r="D58" s="4" t="n">
-        <v>53.99152530542221</v>
+        <v>144.2315045871865</v>
       </c>
       <c r="E58" s="4" t="n">
+        <v>144.4230912677797</v>
+      </c>
+      <c r="F58" s="4" t="n">
         <v>6671.893538065419</v>
       </c>
-      <c r="F58" s="4" t="n">
+      <c r="G58" s="4" t="n">
         <v>8018.388769951162</v>
       </c>
-      <c r="G58" s="4" t="n">
+      <c r="H58" s="4" t="n">
         <v>0.09165890781764971</v>
       </c>
-      <c r="H58" s="4" t="n">
+      <c r="I58" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>403.2638152610442</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>157.7610240963855</v>
+      </c>
+      <c r="M58" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2388,31 +3096,43 @@
           <t>TP4_Gota_0058.jpg</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3" t="n">
         <v>0.002775343266140812</v>
       </c>
-      <c r="C59" s="4" t="n">
-        <v>56.62509320199337</v>
-      </c>
       <c r="D59" s="4" t="n">
-        <v>47.99757198286152</v>
+        <v>127.0096887937642</v>
       </c>
       <c r="E59" s="4" t="n">
+        <v>132.0024280171385</v>
+      </c>
+      <c r="F59" s="4" t="n">
         <v>4479.545309356314</v>
       </c>
-      <c r="F59" s="4" t="n">
+      <c r="G59" s="4" t="n">
         <v>5786.042530132774</v>
       </c>
-      <c r="G59" s="4" t="n">
+      <c r="H59" s="4" t="n">
         <v>0.1272695963645355</v>
       </c>
-      <c r="H59" s="4" t="n">
+      <c r="I59" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>404.0738709677419</v>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>158.5553629032258</v>
+      </c>
+      <c r="M59" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2421,31 +3141,43 @@
           <t>TP4_Gota_0059.jpg</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" s="3" t="n">
         <v>0.002824033498880125</v>
       </c>
-      <c r="C60" s="4" t="n">
-        <v>40.62483127962304</v>
-      </c>
       <c r="D60" s="4" t="n">
-        <v>49.68934365461372</v>
+        <v>139.375168720377</v>
       </c>
       <c r="E60" s="4" t="n">
+        <v>130.3106563453863</v>
+      </c>
+      <c r="F60" s="4" t="n">
         <v>7511.909703316476</v>
       </c>
-      <c r="F60" s="4" t="n">
+      <c r="G60" s="4" t="n">
         <v>6857.956144039487</v>
       </c>
-      <c r="G60" s="4" t="n">
+      <c r="H60" s="4" t="n">
         <v>0.04550867532262422</v>
       </c>
-      <c r="H60" s="4" t="n">
+      <c r="I60" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>407.6426104417671</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>157.6780923694779</v>
+      </c>
+      <c r="M60" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2454,31 +3186,43 @@
           <t>TP4_Gota_0060.jpg</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" s="3" t="n">
         <v>0.002872723731619437</v>
       </c>
-      <c r="C61" s="4" t="n">
-        <v>46.46317135582532</v>
-      </c>
       <c r="D61" s="4" t="n">
-        <v>52.38131237117833</v>
+        <v>133.5368286441747</v>
       </c>
       <c r="E61" s="4" t="n">
+        <v>127.6186876288217</v>
+      </c>
+      <c r="F61" s="4" t="n">
         <v>5775.180340837151</v>
       </c>
-      <c r="F61" s="4" t="n">
+      <c r="G61" s="4" t="n">
         <v>5754.71407594112</v>
       </c>
-      <c r="G61" s="4" t="n">
+      <c r="H61" s="4" t="n">
         <v>0.001775060911767647</v>
       </c>
-      <c r="H61" s="4" t="n">
+      <c r="I61" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>407.2146558704453</v>
+      </c>
+      <c r="L61" s="2" t="n">
+        <v>158.887955465587</v>
+      </c>
+      <c r="M61" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2487,31 +3231,43 @@
           <t>TP4_Gota_0061.jpg</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" s="3" t="n">
         <v>0.00292141396435875</v>
       </c>
-      <c r="C62" s="4" t="n">
-        <v>45.07454828886128</v>
-      </c>
       <c r="D62" s="4" t="n">
-        <v>64.26627830249663</v>
+        <v>134.9254517111387</v>
       </c>
       <c r="E62" s="4" t="n">
+        <v>144.7495050020877</v>
+      </c>
+      <c r="F62" s="4" t="n">
         <v>6923.793637674977</v>
       </c>
-      <c r="F62" s="4" t="n">
+      <c r="G62" s="4" t="n">
         <v>7499.7032608195</v>
       </c>
-      <c r="G62" s="4" t="n">
+      <c r="H62" s="4" t="n">
         <v>0.03992857121941331</v>
       </c>
-      <c r="H62" s="4" t="n">
+      <c r="I62" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>406.9128112449799</v>
+      </c>
+      <c r="L62" s="2" t="n">
+        <v>157.5454016064257</v>
+      </c>
+      <c r="M62" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2520,31 +3276,43 @@
           <t>TP4_Gota_0062.jpg</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" s="3" t="n">
         <v>0.002970104197098062</v>
       </c>
-      <c r="C63" s="4" t="n">
-        <v>44.54643641684055</v>
-      </c>
       <c r="D63" s="4" t="n">
-        <v>50.16172272620867</v>
+        <v>135.4535635831595</v>
       </c>
       <c r="E63" s="4" t="n">
+        <v>129.8382772737914</v>
+      </c>
+      <c r="F63" s="4" t="n">
         <v>5203.769671038803</v>
       </c>
-      <c r="F63" s="4" t="n">
+      <c r="G63" s="4" t="n">
         <v>6348.206979657969</v>
       </c>
-      <c r="G63" s="4" t="n">
+      <c r="H63" s="4" t="n">
         <v>0.09906852681788776</v>
       </c>
-      <c r="H63" s="4" t="n">
+      <c r="I63" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>407.68056</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>156.82436</v>
+      </c>
+      <c r="M63" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2553,31 +3321,43 @@
           <t>TP4_Gota_0063.jpg</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3" t="n">
         <v>0.003018794429837374</v>
       </c>
-      <c r="C64" s="4" t="n">
-        <v>60.90010221246858</v>
-      </c>
       <c r="D64" s="4" t="n">
-        <v>59.29083028502702</v>
+        <v>151.9137026733557</v>
       </c>
       <c r="E64" s="4" t="n">
+        <v>150.2225403611282</v>
+      </c>
+      <c r="F64" s="4" t="n">
         <v>4816.999005747198</v>
       </c>
-      <c r="F64" s="4" t="n">
+      <c r="G64" s="4" t="n">
         <v>6234.15318807692</v>
       </c>
-      <c r="G64" s="4" t="n">
+      <c r="H64" s="4" t="n">
         <v>0.1282358759950561</v>
       </c>
-      <c r="H64" s="4" t="n">
+      <c r="I64" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>407.2712903225806</v>
+      </c>
+      <c r="L64" s="2" t="n">
+        <v>158.0391129032258</v>
+      </c>
+      <c r="M64" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2586,31 +3366,43 @@
           <t>TP4_Gota_0064.jpg</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" s="3" t="n">
         <v>0.003067484662576687</v>
       </c>
-      <c r="C65" s="4" t="n">
-        <v>50.84277153756005</v>
-      </c>
       <c r="D65" s="4" t="n">
-        <v>44.28513149705596</v>
+        <v>129.1572284624399</v>
       </c>
       <c r="E65" s="4" t="n">
+        <v>135.8865064261315</v>
+      </c>
+      <c r="F65" s="4" t="n">
         <v>5119.186837607598</v>
       </c>
-      <c r="F65" s="4" t="n">
+      <c r="G65" s="4" t="n">
         <v>5350.293196081415</v>
       </c>
-      <c r="G65" s="4" t="n">
+      <c r="H65" s="4" t="n">
         <v>0.02207429191613677</v>
       </c>
-      <c r="H65" s="4" t="n">
+      <c r="I65" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I65" s="2" t="inlineStr">
+      <c r="J65" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>408.8699999999999</v>
+      </c>
+      <c r="L65" s="2" t="n">
+        <v>158.165569105691</v>
+      </c>
+      <c r="M65" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2619,31 +3411,43 @@
           <t>TP4_Gota_0065.jpg</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3" t="n">
         <v>0.003116174895315999</v>
       </c>
-      <c r="C66" s="4" t="n">
-        <v>64.6013374827085</v>
-      </c>
       <c r="D66" s="4" t="n">
-        <v>54.631042400591</v>
+        <v>126.1850797890255</v>
       </c>
       <c r="E66" s="4" t="n">
+        <v>128.13857481983</v>
+      </c>
+      <c r="F66" s="4" t="n">
         <v>6371.776858319729</v>
       </c>
-      <c r="F66" s="4" t="n">
+      <c r="G66" s="4" t="n">
         <v>5758.811757765679</v>
       </c>
-      <c r="G66" s="4" t="n">
+      <c r="H66" s="4" t="n">
         <v>0.05053053235530934</v>
       </c>
-      <c r="H66" s="4" t="n">
+      <c r="I66" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I66" s="2" t="inlineStr">
+      <c r="J66" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>410.9768016194332</v>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>158.6204251012146</v>
+      </c>
+      <c r="M66" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2652,31 +3456,43 @@
           <t>TP4_Gota_0066.jpg</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" s="3" t="n">
         <v>0.003164865128055312</v>
       </c>
-      <c r="C67" s="4" t="n">
-        <v>39.45765574390046</v>
-      </c>
       <c r="D67" s="4" t="n">
-        <v>39.72760449015342</v>
+        <v>140.5423442560995</v>
       </c>
       <c r="E67" s="4" t="n">
+        <v>147.8590632134625</v>
+      </c>
+      <c r="F67" s="4" t="n">
         <v>5071.023530989044</v>
       </c>
-      <c r="F67" s="4" t="n">
+      <c r="G67" s="4" t="n">
         <v>4853.128770363891</v>
       </c>
-      <c r="G67" s="4" t="n">
+      <c r="H67" s="4" t="n">
         <v>0.02195600732522495</v>
       </c>
-      <c r="H67" s="4" t="n">
+      <c r="I67" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I67" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>411.6177822580645</v>
+      </c>
+      <c r="L67" s="2" t="n">
+        <v>158.0890725806451</v>
+      </c>
+      <c r="M67" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2685,31 +3501,43 @@
           <t>TP4_Gota_0067.jpg</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" s="3" t="n">
         <v>0.003213555360794625</v>
       </c>
-      <c r="C68" s="4" t="n">
-        <v>39.4592830511146</v>
-      </c>
       <c r="D68" s="4" t="n">
-        <v>46.78106056246536</v>
+        <v>140.5407169488854</v>
       </c>
       <c r="E68" s="4" t="n">
+        <v>133.2189394375346</v>
+      </c>
+      <c r="F68" s="4" t="n">
         <v>6871.746065431752</v>
       </c>
-      <c r="F68" s="4" t="n">
+      <c r="G68" s="4" t="n">
         <v>6362.827107945129</v>
       </c>
-      <c r="G68" s="4" t="n">
+      <c r="H68" s="4" t="n">
         <v>0.03845374919308935</v>
       </c>
-      <c r="H68" s="4" t="n">
+      <c r="I68" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>411.8509274193548</v>
+      </c>
+      <c r="L68" s="2" t="n">
+        <v>158.155685483871</v>
+      </c>
+      <c r="M68" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2718,31 +3546,43 @@
           <t>TP4_Gota_0068.jpg</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" s="3" t="n">
         <v>0.003262245593533937</v>
       </c>
-      <c r="C69" s="4" t="n">
-        <v>47.03994217170256</v>
-      </c>
       <c r="D69" s="4" t="n">
-        <v>74.11144029890379</v>
+        <v>132.9600578282974</v>
       </c>
       <c r="E69" s="4" t="n">
+        <v>126.3383830122808</v>
+      </c>
+      <c r="F69" s="4" t="n">
         <v>6324.986951011158</v>
       </c>
-      <c r="F69" s="4" t="n">
+      <c r="G69" s="4" t="n">
         <v>6876.862932548319</v>
       </c>
-      <c r="G69" s="4" t="n">
+      <c r="H69" s="4" t="n">
         <v>0.04180292810513043</v>
       </c>
-      <c r="H69" s="4" t="n">
+      <c r="I69" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>411.4306</v>
+      </c>
+      <c r="L69" s="2" t="n">
+        <v>156.87392</v>
+      </c>
+      <c r="M69" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2751,31 +3591,43 @@
           <t>TP4_Gota_0069.jpg</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" s="3" t="n">
         <v>0.00331093582627325</v>
       </c>
-      <c r="C70" s="4" t="n">
-        <v>44.96881929824355</v>
-      </c>
       <c r="D70" s="4" t="n">
-        <v>43.532290421323</v>
+        <v>141.3009922997216</v>
       </c>
       <c r="E70" s="4" t="n">
+        <v>154.5346070979238</v>
+      </c>
+      <c r="F70" s="4" t="n">
         <v>4807.028900683371</v>
       </c>
-      <c r="F70" s="4" t="n">
+      <c r="G70" s="4" t="n">
         <v>5598.120018188499</v>
       </c>
-      <c r="G70" s="4" t="n">
+      <c r="H70" s="4" t="n">
         <v>0.07602881262663354</v>
       </c>
-      <c r="H70" s="4" t="n">
+      <c r="I70" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>410.8850403225806</v>
+      </c>
+      <c r="L70" s="2" t="n">
+        <v>158.155685483871</v>
+      </c>
+      <c r="M70" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2784,31 +3636,43 @@
           <t>TP4_Gota_0070.jpg</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3" t="n">
         <v>0.003359626059012562</v>
       </c>
-      <c r="C71" s="4" t="n">
-        <v>83.0670139165078</v>
-      </c>
       <c r="D71" s="4" t="n">
-        <v>47.7066797149462</v>
+        <v>127.097164146037</v>
       </c>
       <c r="E71" s="4" t="n">
+        <v>147.8920515133777</v>
+      </c>
+      <c r="F71" s="4" t="n">
         <v>6797.723712822246</v>
       </c>
-      <c r="F71" s="4" t="n">
+      <c r="G71" s="4" t="n">
         <v>7692.09393307711</v>
       </c>
-      <c r="G71" s="4" t="n">
+      <c r="H71" s="4" t="n">
         <v>0.0617240494056854</v>
       </c>
-      <c r="H71" s="4" t="n">
+      <c r="I71" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="n">
+        <v>411.1181854838709</v>
+      </c>
+      <c r="L71" s="2" t="n">
+        <v>158.155685483871</v>
+      </c>
+      <c r="M71" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2817,31 +3681,43 @@
           <t>TP4_Gota_0071.jpg</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" s="3" t="n">
         <v>0.003408316291751875</v>
       </c>
-      <c r="C72" s="4" t="n">
-        <v>69.4784484166445</v>
-      </c>
       <c r="D72" s="4" t="n">
-        <v>58.51854325811379</v>
+        <v>129.7820247044693</v>
       </c>
       <c r="E72" s="4" t="n">
+        <v>125.8032895561656</v>
+      </c>
+      <c r="F72" s="4" t="n">
         <v>5107.818531192982</v>
       </c>
-      <c r="F72" s="4" t="n">
+      <c r="G72" s="4" t="n">
         <v>6331.218350825752</v>
       </c>
-      <c r="G72" s="4" t="n">
+      <c r="H72" s="4" t="n">
         <v>0.1069495476105911</v>
       </c>
-      <c r="H72" s="4" t="n">
+      <c r="I72" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>411.6289068825911</v>
+      </c>
+      <c r="L72" s="2" t="n">
+        <v>158.821072874494</v>
+      </c>
+      <c r="M72" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2850,31 +3726,43 @@
           <t>TP4_Gota_0072.jpg</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" s="3" t="n">
         <v>0.003457006524491187</v>
       </c>
-      <c r="C73" s="4" t="n">
-        <v>59.84093990294052</v>
-      </c>
       <c r="D73" s="4" t="n">
-        <v>59.11273386171262</v>
+        <v>124.3803848697512</v>
       </c>
       <c r="E73" s="4" t="n">
+        <v>124.9216761760869</v>
+      </c>
+      <c r="F73" s="4" t="n">
         <v>4501.40298912117</v>
       </c>
-      <c r="F73" s="4" t="n">
+      <c r="G73" s="4" t="n">
         <v>4481.424824786855</v>
       </c>
-      <c r="G73" s="4" t="n">
+      <c r="H73" s="4" t="n">
         <v>0.002224039550594948</v>
       </c>
-      <c r="H73" s="4" t="n">
+      <c r="I73" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I73" s="2" t="inlineStr">
+      <c r="J73" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K73" s="2" t="n">
+        <v>413.1348571428572</v>
+      </c>
+      <c r="L73" s="2" t="n">
+        <v>159.0555714285715</v>
+      </c>
+      <c r="M73" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2883,31 +3771,43 @@
           <t>TP4_Gota_0073.jpg</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" s="3" t="n">
         <v>0.0035056967572305</v>
       </c>
-      <c r="C74" s="4" t="n">
-        <v>49.87789846572386</v>
-      </c>
       <c r="D74" s="4" t="n">
-        <v>48.32260813518162</v>
+        <v>130.1221015342761</v>
       </c>
       <c r="E74" s="4" t="n">
+        <v>131.6773918648184</v>
+      </c>
+      <c r="F74" s="4" t="n">
         <v>4534.442066868653</v>
       </c>
-      <c r="F74" s="4" t="n">
+      <c r="G74" s="4" t="n">
         <v>4547.502950257079</v>
       </c>
-      <c r="G74" s="4" t="n">
+      <c r="H74" s="4" t="n">
         <v>0.001438115223533781</v>
       </c>
-      <c r="H74" s="4" t="n">
+      <c r="I74" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>413.2191428571429</v>
+      </c>
+      <c r="L74" s="2" t="n">
+        <v>159.0724285714286</v>
+      </c>
+      <c r="M74" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2916,31 +3816,43 @@
           <t>TP4_Gota_0074.jpg</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" s="3" t="n">
         <v>0.003554386989969812</v>
       </c>
-      <c r="C75" s="4" t="n">
-        <v>46.1779646742722</v>
-      </c>
       <c r="D75" s="4" t="n">
-        <v>56.73283402257238</v>
+        <v>133.8220353257278</v>
       </c>
       <c r="E75" s="4" t="n">
+        <v>126.8002116369845</v>
+      </c>
+      <c r="F75" s="4" t="n">
         <v>4549.062634213675</v>
       </c>
-      <c r="F75" s="4" t="n">
+      <c r="G75" s="4" t="n">
         <v>5117.457991507</v>
       </c>
-      <c r="G75" s="4" t="n">
+      <c r="H75" s="4" t="n">
         <v>0.05880040805798717</v>
       </c>
-      <c r="H75" s="4" t="n">
+      <c r="I75" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I75" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>413.3708571428571</v>
+      </c>
+      <c r="L75" s="2" t="n">
+        <v>159.0892857142857</v>
+      </c>
+      <c r="M75" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2949,31 +3861,43 @@
           <t>TP4_Gota_0075.jpg</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" s="3" t="n">
         <v>0.003603077222709125</v>
       </c>
-      <c r="C76" s="4" t="n">
-        <v>45.92688811660059</v>
-      </c>
       <c r="D76" s="4" t="n">
-        <v>56.70656359494975</v>
+        <v>134.0731118833994</v>
       </c>
       <c r="E76" s="4" t="n">
+        <v>126.8298544984211</v>
+      </c>
+      <c r="F76" s="4" t="n">
         <v>4557.322445661486</v>
       </c>
-      <c r="F76" s="4" t="n">
+      <c r="G76" s="4" t="n">
         <v>5142.237425643772</v>
       </c>
-      <c r="G76" s="4" t="n">
+      <c r="H76" s="4" t="n">
         <v>0.06030324960544566</v>
       </c>
-      <c r="H76" s="4" t="n">
+      <c r="I76" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I76" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>413.4382857142857</v>
+      </c>
+      <c r="L76" s="2" t="n">
+        <v>159.123</v>
+      </c>
+      <c r="M76" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2982,31 +3906,43 @@
           <t>TP4_Gota_0076.jpg</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" s="3" t="n">
         <v>0.003651767455448437</v>
       </c>
-      <c r="C77" s="4" t="n">
-        <v>39.37444376310057</v>
-      </c>
       <c r="D77" s="4" t="n">
-        <v>55.88279878137751</v>
+        <v>140.6255562368994</v>
       </c>
       <c r="E77" s="4" t="n">
+        <v>143.9792198837613</v>
+      </c>
+      <c r="F77" s="4" t="n">
         <v>5108.712632393894</v>
       </c>
-      <c r="F77" s="4" t="n">
+      <c r="G77" s="4" t="n">
         <v>5541.660146583047</v>
       </c>
-      <c r="G77" s="4" t="n">
+      <c r="H77" s="4" t="n">
         <v>0.04065092585714562</v>
       </c>
-      <c r="H77" s="4" t="n">
+      <c r="I77" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I77" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>413.9233739837398</v>
+      </c>
+      <c r="L77" s="2" t="n">
+        <v>158.4845528455284</v>
+      </c>
+      <c r="M77" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3015,31 +3951,43 @@
           <t>TP4_Gota_0077.jpg</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" s="3" t="n">
         <v>0.00370045768818775</v>
       </c>
-      <c r="C78" s="4" t="n">
-        <v>46.85721186918988</v>
-      </c>
       <c r="D78" s="4" t="n">
-        <v>50.62775842619559</v>
+        <v>137.1087370375693</v>
       </c>
       <c r="E78" s="4" t="n">
+        <v>140.8611472018607</v>
+      </c>
+      <c r="F78" s="4" t="n">
         <v>4497.45877348955</v>
       </c>
-      <c r="F78" s="4" t="n">
+      <c r="G78" s="4" t="n">
         <v>4938.666099126515</v>
       </c>
-      <c r="G78" s="4" t="n">
+      <c r="H78" s="4" t="n">
         <v>0.04675725804745999</v>
       </c>
-      <c r="H78" s="4" t="n">
+      <c r="I78" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I78" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>413.940162601626</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>158.4677642276423</v>
+      </c>
+      <c r="M78" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3048,31 +3996,43 @@
           <t>TP4_Gota_0078.jpg</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" s="3" t="n">
         <v>0.003749147920927062</v>
       </c>
-      <c r="C79" s="4" t="n">
-        <v>44.55918337191352</v>
-      </c>
       <c r="D79" s="4" t="n">
-        <v>44.30964406356176</v>
+        <v>135.4408166280865</v>
       </c>
       <c r="E79" s="4" t="n">
+        <v>135.6903559364382</v>
+      </c>
+      <c r="F79" s="4" t="n">
         <v>3967.219224236062</v>
       </c>
-      <c r="F79" s="4" t="n">
+      <c r="G79" s="4" t="n">
         <v>4573.303847262234</v>
       </c>
-      <c r="G79" s="4" t="n">
+      <c r="H79" s="4" t="n">
         <v>0.07096574975001439</v>
       </c>
-      <c r="H79" s="4" t="n">
+      <c r="I79" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I79" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>413.3663709677419</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>157.2064516129032</v>
+      </c>
+      <c r="M79" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3081,31 +4041,43 @@
           <t>TP4_Gota_0079.jpg</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" s="3" t="n">
         <v>0.003797838153666374</v>
       </c>
-      <c r="C80" s="4" t="n">
-        <v>44.52555058077235</v>
-      </c>
       <c r="D80" s="4" t="n">
-        <v>44.56563987113299</v>
+        <v>135.4744494192277</v>
       </c>
       <c r="E80" s="4" t="n">
+        <v>135.434360128867</v>
+      </c>
+      <c r="F80" s="4" t="n">
         <v>4520.654520322537</v>
       </c>
-      <c r="F80" s="4" t="n">
+      <c r="G80" s="4" t="n">
         <v>5151.518492468146</v>
       </c>
-      <c r="G80" s="4" t="n">
+      <c r="H80" s="4" t="n">
         <v>0.06522463683304068</v>
       </c>
-      <c r="H80" s="4" t="n">
+      <c r="I80" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I80" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>413.4163306451613</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>157.2231048387097</v>
+      </c>
+      <c r="M80" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3114,31 +4086,43 @@
           <t>TP4_Gota_0080.jpg</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" s="3" t="n">
         <v>0.003846528386405687</v>
       </c>
-      <c r="C81" s="4" t="n">
-        <v>45.83713719996632</v>
-      </c>
       <c r="D81" s="4" t="n">
-        <v>44.58501206575884</v>
+        <v>134.1628628000337</v>
       </c>
       <c r="E81" s="4" t="n">
+        <v>135.4149879342412</v>
+      </c>
+      <c r="F81" s="4" t="n">
         <v>5800.980995497396</v>
       </c>
-      <c r="F81" s="4" t="n">
+      <c r="G81" s="4" t="n">
         <v>5163.199726784175</v>
       </c>
-      <c r="G81" s="4" t="n">
+      <c r="H81" s="4" t="n">
         <v>0.05816953266896744</v>
       </c>
-      <c r="H81" s="4" t="n">
+      <c r="I81" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I81" s="2" t="inlineStr">
+      <c r="J81" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>414.76764</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>156.90696</v>
+      </c>
+      <c r="M81" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3147,31 +4131,43 @@
           <t>TP4_Gota_0081.jpg</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" s="3" t="n">
         <v>0.003895218619144999</v>
       </c>
-      <c r="C82" s="4" t="n">
-        <v>45.83733399216098</v>
-      </c>
       <c r="D82" s="4" t="n">
-        <v>44.94476538496466</v>
+        <v>134.162666007839</v>
       </c>
       <c r="E82" s="4" t="n">
+        <v>135.0552346150353</v>
+      </c>
+      <c r="F82" s="4" t="n">
         <v>5214.506555114493</v>
       </c>
-      <c r="F82" s="4" t="n">
+      <c r="G82" s="4" t="n">
         <v>4601.50458511691</v>
       </c>
-      <c r="G82" s="4" t="n">
+      <c r="H82" s="4" t="n">
         <v>0.06244919257326075</v>
       </c>
-      <c r="H82" s="4" t="n">
+      <c r="I82" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I82" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>414.8172</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>156.89044</v>
+      </c>
+      <c r="M82" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3180,31 +4176,43 @@
           <t>TP4_Gota_0082.jpg</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" s="3" t="n">
         <v>0.003943908851884312</v>
       </c>
-      <c r="C83" s="4" t="n">
-        <v>44.5256096502483</v>
-      </c>
       <c r="D83" s="4" t="n">
-        <v>44.42225726830095</v>
+        <v>135.4743903497517</v>
       </c>
       <c r="E83" s="4" t="n">
+        <v>135.577742731699</v>
+      </c>
+      <c r="F83" s="4" t="n">
         <v>5214.506555114494</v>
       </c>
-      <c r="F83" s="4" t="n">
+      <c r="G83" s="4" t="n">
         <v>4601.50458511691</v>
       </c>
-      <c r="G83" s="4" t="n">
+      <c r="H83" s="4" t="n">
         <v>0.06244919257326084</v>
       </c>
-      <c r="H83" s="4" t="n">
+      <c r="I83" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I83" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>414.8006799999999</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>156.87392</v>
+      </c>
+      <c r="M83" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3213,31 +4221,43 @@
           <t>TP4_Gota_0083.jpg</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" s="3" t="n">
         <v>0.003992599084623624</v>
       </c>
-      <c r="C84" s="4" t="n">
-        <v>46.30957705056611</v>
-      </c>
       <c r="D84" s="4" t="n">
-        <v>44.90763129305191</v>
+        <v>133.6904229494339</v>
       </c>
       <c r="E84" s="4" t="n">
+        <v>135.0923687069481</v>
+      </c>
+      <c r="F84" s="4" t="n">
         <v>3942.402885339457</v>
       </c>
-      <c r="F84" s="4" t="n">
+      <c r="G84" s="4" t="n">
         <v>3337.697757037319</v>
       </c>
-      <c r="G84" s="4" t="n">
+      <c r="H84" s="4" t="n">
         <v>0.08306274294921241</v>
       </c>
-      <c r="H84" s="4" t="n">
+      <c r="I84" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I84" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>414.85024</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>156.8574</v>
+      </c>
+      <c r="M84" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3246,31 +4266,43 @@
           <t>TP4_Gota_0084.jpg</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" s="3" t="n">
         <v>0.004041289317362937</v>
       </c>
-      <c r="C85" s="4" t="n">
-        <v>45.83619985337836</v>
-      </c>
       <c r="D85" s="4" t="n">
-        <v>44.45589460574814</v>
+        <v>134.1638001466216</v>
       </c>
       <c r="E85" s="4" t="n">
+        <v>135.5441053942518</v>
+      </c>
+      <c r="F85" s="4" t="n">
         <v>4586.6960380723</v>
       </c>
-      <c r="F85" s="4" t="n">
+      <c r="G85" s="4" t="n">
         <v>3981.990909770162</v>
       </c>
-      <c r="G85" s="4" t="n">
+      <c r="H85" s="4" t="n">
         <v>0.07057150436035003</v>
       </c>
-      <c r="H85" s="4" t="n">
+      <c r="I85" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I85" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>414.83372</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>156.84088</v>
+      </c>
+      <c r="M85" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3279,31 +4311,43 @@
           <t>TP4_Gota_0085.jpg</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" s="3" t="n">
         <v>0.00408997955010225</v>
       </c>
-      <c r="C86" s="4" t="n">
-        <v>45.83795361240792</v>
-      </c>
       <c r="D86" s="4" t="n">
-        <v>44.91295821865202</v>
+        <v>134.1620463875921</v>
       </c>
       <c r="E86" s="4" t="n">
+        <v>135.087041781348</v>
+      </c>
+      <c r="F86" s="4" t="n">
         <v>4586.6960380723</v>
       </c>
-      <c r="F86" s="4" t="n">
+      <c r="G86" s="4" t="n">
         <v>3981.990909770162</v>
       </c>
-      <c r="G86" s="4" t="n">
+      <c r="H86" s="4" t="n">
         <v>0.07057150436035003</v>
       </c>
-      <c r="H86" s="4" t="n">
+      <c r="I86" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I86" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>414.85024</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>156.8574</v>
+      </c>
+      <c r="M86" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3312,31 +4356,43 @@
           <t>TP4_Gota_0086.jpg</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="C87" s="3" t="n">
         <v>0.004138669782841562</v>
       </c>
-      <c r="C87" s="4" t="n">
-        <v>44.52560959894819</v>
-      </c>
       <c r="D87" s="4" t="n">
-        <v>44.42225726830095</v>
+        <v>135.4743904010518</v>
       </c>
       <c r="E87" s="4" t="n">
+        <v>135.577742731699</v>
+      </c>
+      <c r="F87" s="4" t="n">
         <v>5214.469534660189</v>
       </c>
-      <c r="F87" s="4" t="n">
+      <c r="G87" s="4" t="n">
         <v>4601.50458511691</v>
       </c>
-      <c r="G87" s="4" t="n">
+      <c r="H87" s="4" t="n">
         <v>0.06244565664739127</v>
       </c>
-      <c r="H87" s="4" t="n">
+      <c r="I87" s="4" t="n">
         <v>1.18796992481203</v>
       </c>
-      <c r="I87" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>414.8172</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>156.8574</v>
+      </c>
+      <c r="M87" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3345,31 +4401,43 @@
           <t>TP4_Gota_0087.jpg</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C88" s="3" t="n">
         <v>0.004187360015580874</v>
       </c>
-      <c r="C88" s="4" t="n">
-        <v>44.88641508119849</v>
-      </c>
       <c r="D88" s="4" t="n">
-        <v>47.93312453914525</v>
+        <v>135.1135849188015</v>
       </c>
       <c r="E88" s="4" t="n">
+        <v>132.0668754608547</v>
+      </c>
+      <c r="F88" s="4" t="n">
         <v>3876.324418820328</v>
       </c>
-      <c r="F88" s="4" t="n">
+      <c r="G88" s="4" t="n">
         <v>4515.485244707423</v>
       </c>
-      <c r="G88" s="4" t="n">
+      <c r="H88" s="4" t="n">
         <v>0.07616483827856554</v>
       </c>
-      <c r="H88" s="4" t="n">
+      <c r="I88" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I88" s="2" t="inlineStr">
+      <c r="J88" s="2" t="inlineStr">
         <is>
           <t>Dinámico</t>
         </is>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>413.4662903225806</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>157.1398387096774</v>
+      </c>
+      <c r="M88" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3378,31 +4446,43 @@
           <t>TP4_Gota_0088.jpg</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" s="3" t="n">
         <v>0.004236050248320187</v>
       </c>
-      <c r="C89" s="4" t="n">
-        <v>44.56006410347234</v>
-      </c>
       <c r="D89" s="4" t="n">
-        <v>44.54999611055791</v>
+        <v>135.4399358965277</v>
       </c>
       <c r="E89" s="4" t="n">
+        <v>135.4500038894421</v>
+      </c>
+      <c r="F89" s="4" t="n">
         <v>3934.143059485331</v>
       </c>
-      <c r="F89" s="4" t="n">
+      <c r="G89" s="4" t="n">
         <v>4589.82335080088</v>
       </c>
-      <c r="G89" s="4" t="n">
+      <c r="H89" s="4" t="n">
         <v>0.07692197033112574</v>
       </c>
-      <c r="H89" s="4" t="n">
+      <c r="I89" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I89" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>413.482943548387</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>157.123185483871</v>
+      </c>
+      <c r="M89" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3411,31 +4491,43 @@
           <t>TP4_Gota_0089.jpg</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="C90" s="3" t="n">
         <v>0.004284740481059499</v>
       </c>
-      <c r="C90" s="4" t="n">
-        <v>38.38975387815572</v>
-      </c>
       <c r="D90" s="4" t="n">
-        <v>44.54999611055791</v>
+        <v>141.6102461218443</v>
       </c>
       <c r="E90" s="4" t="n">
+        <v>135.4500038894421</v>
+      </c>
+      <c r="F90" s="4" t="n">
         <v>4464.382608738821</v>
       </c>
-      <c r="F90" s="4" t="n">
+      <c r="G90" s="4" t="n">
         <v>4589.82335080088</v>
       </c>
-      <c r="G90" s="4" t="n">
+      <c r="H90" s="4" t="n">
         <v>0.01385441667912272</v>
       </c>
-      <c r="H90" s="4" t="n">
+      <c r="I90" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I90" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>414.0408943089431</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>158.4006097560976</v>
+      </c>
+      <c r="M90" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3444,31 +4536,43 @@
           <t>TP4_Gota_0090.jpg</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" s="3" t="n">
         <v>0.004333430713798812</v>
       </c>
-      <c r="C91" s="4" t="n">
-        <v>46.12011418384063</v>
-      </c>
       <c r="D91" s="4" t="n">
-        <v>44.5586825750341</v>
+        <v>133.8798858161594</v>
       </c>
       <c r="E91" s="4" t="n">
+        <v>135.4413174249659</v>
+      </c>
+      <c r="F91" s="4" t="n">
         <v>5034.337464661706</v>
       </c>
-      <c r="F91" s="4" t="n">
+      <c r="G91" s="4" t="n">
         <v>5138.998291981491</v>
       </c>
-      <c r="G91" s="4" t="n">
+      <c r="H91" s="4" t="n">
         <v>0.01028775908152267</v>
       </c>
-      <c r="H91" s="4" t="n">
+      <c r="I91" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I91" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>413.9905284552846</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>158.3166666666667</v>
+      </c>
+      <c r="M91" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3477,31 +4581,43 @@
           <t>TP4_Gota_0091.jpg</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" s="3" t="n">
         <v>0.004382120946538125</v>
       </c>
-      <c r="C92" s="4" t="n">
-        <v>46.12011418384063</v>
-      </c>
       <c r="D92" s="4" t="n">
-        <v>44.60108923949892</v>
+        <v>133.8798858161594</v>
       </c>
       <c r="E92" s="4" t="n">
+        <v>135.3989107605011</v>
+      </c>
+      <c r="F92" s="4" t="n">
         <v>5034.337464661706</v>
       </c>
-      <c r="F92" s="4" t="n">
+      <c r="G92" s="4" t="n">
         <v>5134.99892005417</v>
       </c>
-      <c r="G92" s="4" t="n">
+      <c r="H92" s="4" t="n">
         <v>0.009898527453940353</v>
       </c>
-      <c r="H92" s="4" t="n">
+      <c r="I92" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I92" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>414.0241056910569</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>158.350243902439</v>
+      </c>
+      <c r="M92" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3510,31 +4626,43 @@
           <t>TP4_Gota_0092.jpg</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="C93" s="3" t="n">
         <v>0.004430811179277437</v>
       </c>
-      <c r="C93" s="4" t="n">
-        <v>41.10427467668148</v>
-      </c>
       <c r="D93" s="4" t="n">
-        <v>44.60108923949892</v>
+        <v>138.8957253233185</v>
       </c>
       <c r="E93" s="4" t="n">
+        <v>135.3989107605011</v>
+      </c>
+      <c r="F93" s="4" t="n">
         <v>5050.857049121722</v>
       </c>
-      <c r="F93" s="4" t="n">
+      <c r="G93" s="4" t="n">
         <v>5134.99892005417</v>
       </c>
-      <c r="G93" s="4" t="n">
+      <c r="H93" s="4" t="n">
         <v>0.008260657836422918</v>
       </c>
-      <c r="H93" s="4" t="n">
+      <c r="I93" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I93" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>414.0073170731707</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>158.3670325203252</v>
+      </c>
+      <c r="M93" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3543,31 +4671,43 @@
           <t>TP4_Gota_0093.jpg</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" s="3" t="n">
         <v>0.004479501412016749</v>
       </c>
-      <c r="C94" s="4" t="n">
-        <v>41.10427467668148</v>
-      </c>
       <c r="D94" s="4" t="n">
-        <v>44.56794580173843</v>
+        <v>138.8957253233185</v>
       </c>
       <c r="E94" s="4" t="n">
+        <v>135.4320541982615</v>
+      </c>
+      <c r="F94" s="4" t="n">
         <v>5050.857049121722</v>
       </c>
-      <c r="F94" s="4" t="n">
+      <c r="G94" s="4" t="n">
         <v>5134.900676702739</v>
       </c>
-      <c r="G94" s="4" t="n">
+      <c r="H94" s="4" t="n">
         <v>0.008251092343178067</v>
       </c>
-      <c r="H94" s="4" t="n">
+      <c r="I94" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I94" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>413.9905284552846</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>158.350243902439</v>
+      </c>
+      <c r="M94" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3576,31 +4716,43 @@
           <t>TP4_Gota_0094.jpg</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="C95" s="3" t="n">
         <v>0.004528191644756062</v>
       </c>
-      <c r="C95" s="4" t="n">
-        <v>43.67388965777243</v>
-      </c>
       <c r="D95" s="4" t="n">
-        <v>44.65837382738406</v>
+        <v>136.3261103422276</v>
       </c>
       <c r="E95" s="4" t="n">
+        <v>135.3416261726159</v>
+      </c>
+      <c r="F95" s="4" t="n">
         <v>5620.811905044607</v>
       </c>
-      <c r="F95" s="4" t="n">
+      <c r="G95" s="4" t="n">
         <v>5696.595749494676</v>
       </c>
-      <c r="G95" s="4" t="n">
+      <c r="H95" s="4" t="n">
         <v>0.006696219378443382</v>
       </c>
-      <c r="H95" s="4" t="n">
+      <c r="I95" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I95" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>413.9737398373983</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>158.3334552845529</v>
+      </c>
+      <c r="M95" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3609,31 +4761,43 @@
           <t>TP4_Gota_0095.jpg</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" s="3" t="n">
         <v>0.004576881877495375</v>
       </c>
-      <c r="C96" s="4" t="n">
-        <v>39.39170766425124</v>
-      </c>
       <c r="D96" s="4" t="n">
-        <v>44.56902229766706</v>
+        <v>140.6082923357488</v>
       </c>
       <c r="E96" s="4" t="n">
+        <v>135.4309777023329</v>
+      </c>
+      <c r="F96" s="4" t="n">
         <v>6232.06576394895</v>
       </c>
-      <c r="F96" s="4" t="n">
+      <c r="G96" s="4" t="n">
         <v>6303.687412229959</v>
       </c>
-      <c r="G96" s="4" t="n">
+      <c r="H96" s="4" t="n">
         <v>0.005713390115011826</v>
       </c>
-      <c r="H96" s="4" t="n">
+      <c r="I96" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I96" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>413.9233739837398</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>158.3166666666667</v>
+      </c>
+      <c r="M96" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3642,31 +4806,43 @@
           <t>TP4_Gota_0096.jpg</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" s="3" t="n">
         <v>0.004625572110234687</v>
       </c>
-      <c r="C97" s="4" t="n">
-        <v>43.67388965777243</v>
-      </c>
       <c r="D97" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>136.3261103422276</v>
       </c>
       <c r="E97" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F97" s="4" t="n">
         <v>5620.811905044607</v>
       </c>
-      <c r="F97" s="4" t="n">
+      <c r="G97" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G97" s="4" t="n">
+      <c r="H97" s="4" t="n">
         <v>0.007055727822852034</v>
       </c>
-      <c r="H97" s="4" t="n">
+      <c r="I97" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I97" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>413.9569512195122</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>158.3166666666667</v>
+      </c>
+      <c r="M97" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3675,31 +4851,43 @@
           <t>TP4_Gota_0097.jpg</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" s="3" t="n">
         <v>0.004674262342973999</v>
       </c>
-      <c r="C98" s="4" t="n">
-        <v>43.59031615749365</v>
-      </c>
       <c r="D98" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>136.4096838425064</v>
       </c>
       <c r="E98" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F98" s="4" t="n">
         <v>5620.811905044606</v>
       </c>
-      <c r="F98" s="4" t="n">
+      <c r="G98" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G98" s="4" t="n">
+      <c r="H98" s="4" t="n">
         <v>0.007055727822852115</v>
       </c>
-      <c r="H98" s="4" t="n">
+      <c r="I98" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I98" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J98" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>413.9737398373984</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>158.2998780487805</v>
+      </c>
+      <c r="M98" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3708,31 +4896,43 @@
           <t>TP4_Gota_0098.jpg</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="C99" s="3" t="n">
         <v>0.004722952575713312</v>
       </c>
-      <c r="C99" s="4" t="n">
-        <v>43.67388965777243</v>
-      </c>
       <c r="D99" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>136.3261103422276</v>
       </c>
       <c r="E99" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F99" s="4" t="n">
         <v>5620.811905044607</v>
       </c>
-      <c r="F99" s="4" t="n">
+      <c r="G99" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G99" s="4" t="n">
+      <c r="H99" s="4" t="n">
         <v>0.007055727822852034</v>
       </c>
-      <c r="H99" s="4" t="n">
+      <c r="I99" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I99" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>413.9569512195122</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>158.3166666666667</v>
+      </c>
+      <c r="M99" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3741,31 +4941,43 @@
           <t>TP4_Gota_0099.jpg</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C100" s="3" t="n">
         <v>0.004771642808452625</v>
       </c>
-      <c r="C100" s="4" t="n">
-        <v>39.39170766425124</v>
-      </c>
       <c r="D100" s="4" t="n">
-        <v>44.56902229766706</v>
+        <v>140.6082923357488</v>
       </c>
       <c r="E100" s="4" t="n">
+        <v>135.4309777023329</v>
+      </c>
+      <c r="F100" s="4" t="n">
         <v>6232.06576394895</v>
       </c>
-      <c r="F100" s="4" t="n">
+      <c r="G100" s="4" t="n">
         <v>6303.687412229959</v>
       </c>
-      <c r="G100" s="4" t="n">
+      <c r="H100" s="4" t="n">
         <v>0.005713390115011826</v>
       </c>
-      <c r="H100" s="4" t="n">
+      <c r="I100" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I100" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>413.9233739837398</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>158.3166666666667</v>
+      </c>
+      <c r="M100" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3774,31 +4986,43 @@
           <t>TP4_Gota_0100.jpg</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" s="3" t="n">
         <v>0.004820333041191937</v>
       </c>
-      <c r="C101" s="4" t="n">
-        <v>41.08806722517119</v>
-      </c>
       <c r="D101" s="4" t="n">
-        <v>44.56906181641924</v>
+        <v>138.9119327748288</v>
       </c>
       <c r="E101" s="4" t="n">
+        <v>135.4309381835807</v>
+      </c>
+      <c r="F101" s="4" t="n">
         <v>5620.811905044607</v>
       </c>
-      <c r="F101" s="4" t="n">
+      <c r="G101" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G101" s="4" t="n">
+      <c r="H101" s="4" t="n">
         <v>0.007055727822852034</v>
       </c>
-      <c r="H101" s="4" t="n">
+      <c r="I101" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I101" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>413.940162601626</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>158.2998780487805</v>
+      </c>
+      <c r="M101" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3807,31 +5031,43 @@
           <t>TP4_Gota_0101.jpg</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="C102" s="3" t="n">
         <v>0.004869023273931249</v>
       </c>
-      <c r="C102" s="4" t="n">
-        <v>39.39170766425124</v>
-      </c>
       <c r="D102" s="4" t="n">
-        <v>44.56902229766706</v>
+        <v>140.6082923357488</v>
       </c>
       <c r="E102" s="4" t="n">
+        <v>135.4309777023329</v>
+      </c>
+      <c r="F102" s="4" t="n">
         <v>6232.06576394895</v>
       </c>
-      <c r="F102" s="4" t="n">
+      <c r="G102" s="4" t="n">
         <v>6303.687412229959</v>
       </c>
-      <c r="G102" s="4" t="n">
+      <c r="H102" s="4" t="n">
         <v>0.005713390115011826</v>
       </c>
-      <c r="H102" s="4" t="n">
+      <c r="I102" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I102" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>413.9233739837398</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>158.3166666666667</v>
+      </c>
+      <c r="M102" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3840,31 +5076,43 @@
           <t>TP4_Gota_0102.jpg</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C103" s="3" t="n">
         <v>0.004917713506670562</v>
       </c>
-      <c r="C103" s="4" t="n">
-        <v>39.46775011652841</v>
-      </c>
       <c r="D103" s="4" t="n">
-        <v>44.56224295597259</v>
+        <v>140.5322498834716</v>
       </c>
       <c r="E103" s="4" t="n">
+        <v>135.4377570440274</v>
+      </c>
+      <c r="F103" s="4" t="n">
         <v>6232.06576394895</v>
       </c>
-      <c r="F103" s="4" t="n">
+      <c r="G103" s="4" t="n">
         <v>6303.68741222996</v>
       </c>
-      <c r="G103" s="4" t="n">
+      <c r="H103" s="4" t="n">
         <v>0.005713390115011897</v>
       </c>
-      <c r="H103" s="4" t="n">
+      <c r="I103" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I103" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>413.9569512195122</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>158.3166666666667</v>
+      </c>
+      <c r="M103" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3873,31 +5121,43 @@
           <t>TP4_Gota_0103.jpg</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="C104" s="3" t="n">
         <v>0.004966403739409875</v>
       </c>
-      <c r="C104" s="4" t="n">
-        <v>39.4788709938793</v>
-      </c>
       <c r="D104" s="4" t="n">
-        <v>44.56902229766706</v>
+        <v>140.5211290061207</v>
       </c>
       <c r="E104" s="4" t="n">
+        <v>135.4309777023329</v>
+      </c>
+      <c r="F104" s="4" t="n">
         <v>6215.546179488935</v>
       </c>
-      <c r="F104" s="4" t="n">
+      <c r="G104" s="4" t="n">
         <v>6303.687412229959</v>
       </c>
-      <c r="G104" s="4" t="n">
+      <c r="H104" s="4" t="n">
         <v>0.007040465544098987</v>
       </c>
-      <c r="H104" s="4" t="n">
+      <c r="I104" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I104" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>413.9569512195122</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>158.2830894308943</v>
+      </c>
+      <c r="M104" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3906,31 +5166,43 @@
           <t>TP4_Gota_0104.jpg</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="C105" s="3" t="n">
         <v>0.005015093972149187</v>
       </c>
-      <c r="C105" s="4" t="n">
-        <v>43.59031615749365</v>
-      </c>
       <c r="D105" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>136.4096838425064</v>
       </c>
       <c r="E105" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F105" s="4" t="n">
         <v>5620.811905044606</v>
       </c>
-      <c r="F105" s="4" t="n">
+      <c r="G105" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G105" s="4" t="n">
+      <c r="H105" s="4" t="n">
         <v>0.007055727822852115</v>
       </c>
-      <c r="H105" s="4" t="n">
+      <c r="I105" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I105" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>413.9737398373984</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>158.2998780487805</v>
+      </c>
+      <c r="M105" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3939,31 +5211,43 @@
           <t>TP4_Gota_0105.jpg</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="C106" s="3" t="n">
         <v>0.005063784204888499</v>
       </c>
-      <c r="C106" s="4" t="n">
-        <v>39.43638486541491</v>
-      </c>
       <c r="D106" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>140.5636151345851</v>
       </c>
       <c r="E106" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F106" s="4" t="n">
         <v>5604.292320584591</v>
       </c>
-      <c r="F106" s="4" t="n">
+      <c r="G106" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G106" s="4" t="n">
+      <c r="H106" s="4" t="n">
         <v>0.008527303516508948</v>
       </c>
-      <c r="H106" s="4" t="n">
+      <c r="I106" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I106" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>413.9905284552846</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>158.2830894308943</v>
+      </c>
+      <c r="M106" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3972,31 +5256,43 @@
           <t>TP4_Gota_0106.jpg</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="C107" s="3" t="n">
         <v>0.005112474437627812</v>
       </c>
-      <c r="C107" s="4" t="n">
-        <v>39.39782556863256</v>
-      </c>
       <c r="D107" s="4" t="n">
-        <v>44.56906181641924</v>
+        <v>140.6021744313674</v>
       </c>
       <c r="E107" s="4" t="n">
+        <v>135.4309381835807</v>
+      </c>
+      <c r="F107" s="4" t="n">
         <v>5604.292320584591</v>
       </c>
-      <c r="F107" s="4" t="n">
+      <c r="G107" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G107" s="4" t="n">
+      <c r="H107" s="4" t="n">
         <v>0.008527303516508948</v>
       </c>
-      <c r="H107" s="4" t="n">
+      <c r="I107" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I107" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>413.9569512195122</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>158.2830894308943</v>
+      </c>
+      <c r="M107" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -4005,31 +5301,43 @@
           <t>TP4_Gota_0107.jpg</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="C108" s="3" t="n">
         <v>0.005161164670367124</v>
       </c>
-      <c r="C108" s="4" t="n">
-        <v>39.48026259868462</v>
-      </c>
       <c r="D108" s="4" t="n">
-        <v>44.56902229766706</v>
+        <v>140.5197374013154</v>
       </c>
       <c r="E108" s="4" t="n">
+        <v>135.4309777023329</v>
+      </c>
+      <c r="F108" s="4" t="n">
         <v>6215.156559923561</v>
       </c>
-      <c r="F108" s="4" t="n">
+      <c r="G108" s="4" t="n">
         <v>6303.687412229959</v>
       </c>
-      <c r="G108" s="4" t="n">
+      <c r="H108" s="4" t="n">
         <v>0.007071807309310881</v>
       </c>
-      <c r="H108" s="4" t="n">
+      <c r="I108" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I108" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>413.9737398373983</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>158.2663008130081</v>
+      </c>
+      <c r="M108" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -4038,31 +5346,43 @@
           <t>TP4_Gota_0108.jpg</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="C109" s="3" t="n">
         <v>0.005209854903106437</v>
       </c>
-      <c r="C109" s="4" t="n">
-        <v>39.41504650059423</v>
-      </c>
       <c r="D109" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>140.5849534994058</v>
       </c>
       <c r="E109" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F109" s="4" t="n">
         <v>5608.401620774829</v>
       </c>
-      <c r="F109" s="4" t="n">
+      <c r="G109" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G109" s="4" t="n">
+      <c r="H109" s="4" t="n">
         <v>0.008160842588778056</v>
       </c>
-      <c r="H109" s="4" t="n">
+      <c r="I109" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I109" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>414.0073170731707</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>158.2663008130081</v>
+      </c>
+      <c r="M109" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -4071,31 +5391,43 @@
           <t>TP4_Gota_0109.jpg</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="C110" s="3" t="n">
         <v>0.005258545135845749</v>
       </c>
-      <c r="C110" s="4" t="n">
-        <v>39.43638486541491</v>
-      </c>
       <c r="D110" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>140.5636151345851</v>
       </c>
       <c r="E110" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F110" s="4" t="n">
         <v>5604.292320584591</v>
       </c>
-      <c r="F110" s="4" t="n">
+      <c r="G110" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G110" s="4" t="n">
+      <c r="H110" s="4" t="n">
         <v>0.008527303516508948</v>
       </c>
-      <c r="H110" s="4" t="n">
+      <c r="I110" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I110" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>413.9905284552846</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>158.2830894308943</v>
+      </c>
+      <c r="M110" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -4104,31 +5436,43 @@
           <t>TP4_Gota_0110.jpg</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C111" s="3" t="n">
         <v>0.005307235368585062</v>
       </c>
-      <c r="C111" s="4" t="n">
-        <v>39.43638486541491</v>
-      </c>
       <c r="D111" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>140.5636151345851</v>
       </c>
       <c r="E111" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F111" s="4" t="n">
         <v>5604.292320584591</v>
       </c>
-      <c r="F111" s="4" t="n">
+      <c r="G111" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G111" s="4" t="n">
+      <c r="H111" s="4" t="n">
         <v>0.008527303516508948</v>
       </c>
-      <c r="H111" s="4" t="n">
+      <c r="I111" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I111" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>413.9905284552846</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>158.2830894308943</v>
+      </c>
+      <c r="M111" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4137,31 +5481,43 @@
           <t>TP4_Gota_0111.jpg</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="C112" s="3" t="n">
         <v>0.005355925601324374</v>
       </c>
-      <c r="C112" s="4" t="n">
-        <v>39.4361062482202</v>
-      </c>
       <c r="D112" s="4" t="n">
-        <v>44.56902229766706</v>
+        <v>140.5638937517798</v>
       </c>
       <c r="E112" s="4" t="n">
+        <v>135.4309777023329</v>
+      </c>
+      <c r="F112" s="4" t="n">
         <v>6198.63707214779</v>
       </c>
-      <c r="F112" s="4" t="n">
+      <c r="G112" s="4" t="n">
         <v>6303.687412229959</v>
       </c>
-      <c r="G112" s="4" t="n">
+      <c r="H112" s="4" t="n">
         <v>0.008402464694740118</v>
       </c>
-      <c r="H112" s="4" t="n">
+      <c r="I112" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I112" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>413.9905284552846</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>158.249512195122</v>
+      </c>
+      <c r="M112" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4170,31 +5526,43 @@
           <t>TP4_Gota_0112.jpg</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="C113" s="3" t="n">
         <v>0.005404615834063687</v>
       </c>
-      <c r="C113" s="4" t="n">
-        <v>39.39780946344538</v>
-      </c>
       <c r="D113" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>140.6021905365546</v>
       </c>
       <c r="E113" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F113" s="4" t="n">
         <v>5587.772832808821</v>
       </c>
-      <c r="F113" s="4" t="n">
+      <c r="G113" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G113" s="4" t="n">
+      <c r="H113" s="4" t="n">
         <v>0.01000317757861491</v>
       </c>
-      <c r="H113" s="4" t="n">
+      <c r="I113" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I113" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>414.0073170731707</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>158.2663008130081</v>
+      </c>
+      <c r="M113" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4203,31 +5571,43 @@
           <t>TP4_Gota_0113.jpg</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="C114" s="3" t="n">
         <v>0.005453306066803</v>
       </c>
-      <c r="C114" s="4" t="n">
-        <v>39.47404792039259</v>
-      </c>
       <c r="D114" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>140.5259520796074</v>
       </c>
       <c r="E114" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F114" s="4" t="n">
         <v>5587.383213243446</v>
       </c>
-      <c r="F114" s="4" t="n">
+      <c r="G114" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G114" s="4" t="n">
+      <c r="H114" s="4" t="n">
         <v>0.010038038876406</v>
       </c>
-      <c r="H114" s="4" t="n">
+      <c r="I114" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I114" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>414.0241056910569</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>158.249512195122</v>
+      </c>
+      <c r="M114" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4236,31 +5616,43 @@
           <t>TP4_Gota_0114.jpg</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="C115" s="3" t="n">
         <v>0.005501996299542311</v>
       </c>
-      <c r="C115" s="4" t="n">
-        <v>39.39780946344538</v>
-      </c>
       <c r="D115" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>140.6021905365546</v>
       </c>
       <c r="E115" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F115" s="4" t="n">
         <v>5587.772832808821</v>
       </c>
-      <c r="F115" s="4" t="n">
+      <c r="G115" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G115" s="4" t="n">
+      <c r="H115" s="4" t="n">
         <v>0.01000317757861491</v>
       </c>
-      <c r="H115" s="4" t="n">
+      <c r="I115" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I115" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>414.0073170731707</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>158.2663008130081</v>
+      </c>
+      <c r="M115" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4269,31 +5661,43 @@
           <t>TP4_Gota_0115.jpg</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="C116" s="3" t="n">
         <v>0.005550686532281624</v>
       </c>
-      <c r="C116" s="4" t="n">
-        <v>39.34943130067325</v>
-      </c>
       <c r="D116" s="4" t="n">
-        <v>44.56906181641924</v>
+        <v>140.6505686993268</v>
       </c>
       <c r="E116" s="4" t="n">
+        <v>135.4309381835807</v>
+      </c>
+      <c r="F116" s="4" t="n">
         <v>5591.882132999059</v>
       </c>
-      <c r="F116" s="4" t="n">
+      <c r="G116" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G116" s="4" t="n">
+      <c r="H116" s="4" t="n">
         <v>0.009635643507172695</v>
       </c>
-      <c r="H116" s="4" t="n">
+      <c r="I116" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I116" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>414.0073170731707</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>158.2327235772358</v>
+      </c>
+      <c r="M116" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -4302,31 +5706,43 @@
           <t>TP4_Gota_0116.jpg</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C117" s="3" t="n">
         <v>0.005599376765020937</v>
       </c>
-      <c r="C117" s="4" t="n">
-        <v>39.47404792039259</v>
-      </c>
       <c r="D117" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>140.5259520796074</v>
       </c>
       <c r="E117" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F117" s="4" t="n">
         <v>5587.383213243446</v>
       </c>
-      <c r="F117" s="4" t="n">
+      <c r="G117" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G117" s="4" t="n">
+      <c r="H117" s="4" t="n">
         <v>0.010038038876406</v>
       </c>
-      <c r="H117" s="4" t="n">
+      <c r="I117" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I117" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>414.0241056910569</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>158.249512195122</v>
+      </c>
+      <c r="M117" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4335,31 +5751,43 @@
           <t>TP4_Gota_0117.jpg</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="C118" s="3" t="n">
         <v>0.00564806699776025</v>
       </c>
-      <c r="C118" s="4" t="n">
-        <v>39.47404792039259</v>
-      </c>
       <c r="D118" s="4" t="n">
-        <v>44.56223673203312</v>
+        <v>140.5259520796074</v>
       </c>
       <c r="E118" s="4" t="n">
+        <v>135.4377632679669</v>
+      </c>
+      <c r="F118" s="4" t="n">
         <v>5587.383213243446</v>
       </c>
-      <c r="F118" s="4" t="n">
+      <c r="G118" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G118" s="4" t="n">
+      <c r="H118" s="4" t="n">
         <v>0.010038038876406</v>
       </c>
-      <c r="H118" s="4" t="n">
+      <c r="I118" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I118" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>414.0241056910569</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>158.249512195122</v>
+      </c>
+      <c r="M118" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4368,31 +5796,43 @@
           <t>TP4_Gota_0118.jpg</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="C119" s="3" t="n">
         <v>0.005696757230499561</v>
       </c>
-      <c r="C119" s="4" t="n">
-        <v>38.53126259187263</v>
-      </c>
       <c r="D119" s="4" t="n">
-        <v>44.66665758819659</v>
+        <v>141.4687374081274</v>
       </c>
       <c r="E119" s="4" t="n">
+        <v>135.3333424118034</v>
+      </c>
+      <c r="F119" s="4" t="n">
         <v>4959.609716655558</v>
       </c>
-      <c r="F119" s="4" t="n">
+      <c r="G119" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="G119" s="4" t="n">
+      <c r="H119" s="4" t="n">
         <v>0.01210761105072877</v>
       </c>
-      <c r="H119" s="4" t="n">
+      <c r="I119" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I119" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>414.0408943089431</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>158.2327235772358</v>
+      </c>
+      <c r="M119" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4401,31 +5841,43 @@
           <t>TP4_Gota_0119.jpg</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="C120" s="3" t="n">
         <v>0.005745447463238874</v>
       </c>
-      <c r="C120" s="4" t="n">
-        <v>39.97929274882475</v>
-      </c>
       <c r="D120" s="4" t="n">
-        <v>44.66665758819659</v>
+        <v>140.0207072511753</v>
       </c>
       <c r="E120" s="4" t="n">
+        <v>135.3333424118034</v>
+      </c>
+      <c r="F120" s="4" t="n">
         <v>4963.719016845796</v>
       </c>
-      <c r="F120" s="4" t="n">
+      <c r="G120" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="G120" s="4" t="n">
+      <c r="H120" s="4" t="n">
         <v>0.01169356466556859</v>
       </c>
-      <c r="H120" s="4" t="n">
+      <c r="I120" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I120" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>414.0576829268293</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>158.2159349593496</v>
+      </c>
+      <c r="M120" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4434,31 +5886,43 @@
           <t>TP4_Gota_0120.jpg</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="C121" s="3" t="n">
         <v>0.005794137695978187</v>
       </c>
-      <c r="C121" s="4" t="n">
-        <v>39.37229711189661</v>
-      </c>
       <c r="D121" s="4" t="n">
-        <v>44.59047986664363</v>
+        <v>140.6277028881034</v>
       </c>
       <c r="E121" s="4" t="n">
+        <v>135.4095201333564</v>
+      </c>
+      <c r="F121" s="4" t="n">
         <v>5591.492513433685</v>
       </c>
-      <c r="F121" s="4" t="n">
+      <c r="G121" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G121" s="4" t="n">
+      <c r="H121" s="4" t="n">
         <v>0.009670479437510043</v>
       </c>
-      <c r="H121" s="4" t="n">
+      <c r="I121" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I121" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>414.0241056910569</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>158.1823577235772</v>
+      </c>
+      <c r="M121" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -4467,31 +5931,43 @@
           <t>TP4_Gota_0121.jpg</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="C122" s="3" t="n">
         <v>0.0058428279287175</v>
       </c>
-      <c r="C122" s="4" t="n">
-        <v>39.97929274882475</v>
-      </c>
       <c r="D122" s="4" t="n">
-        <v>44.66665758819659</v>
+        <v>140.0207072511753</v>
       </c>
       <c r="E122" s="4" t="n">
+        <v>135.3333424118034</v>
+      </c>
+      <c r="F122" s="4" t="n">
         <v>4963.719016845796</v>
       </c>
-      <c r="F122" s="4" t="n">
+      <c r="G122" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="G122" s="4" t="n">
+      <c r="H122" s="4" t="n">
         <v>0.01169356466556859</v>
       </c>
-      <c r="H122" s="4" t="n">
+      <c r="I122" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I122" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>414.0576829268293</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>158.2159349593496</v>
+      </c>
+      <c r="M122" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -4500,31 +5976,43 @@
           <t>TP4_Gota_0122.jpg</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="C123" s="3" t="n">
         <v>0.005891518161456812</v>
       </c>
-      <c r="C123" s="4" t="n">
-        <v>39.97929274882475</v>
-      </c>
       <c r="D123" s="4" t="n">
-        <v>44.66665758819659</v>
+        <v>140.0207072511753</v>
       </c>
       <c r="E123" s="4" t="n">
+        <v>135.3333424118034</v>
+      </c>
+      <c r="F123" s="4" t="n">
         <v>4963.719016845796</v>
       </c>
-      <c r="F123" s="4" t="n">
+      <c r="G123" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="G123" s="4" t="n">
+      <c r="H123" s="4" t="n">
         <v>0.01169356466556859</v>
       </c>
-      <c r="H123" s="4" t="n">
+      <c r="I123" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I123" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>414.0576829268293</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>158.2159349593496</v>
+      </c>
+      <c r="M123" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4533,31 +6021,43 @@
           <t>TP4_Gota_0123.jpg</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="C124" s="3" t="n">
         <v>0.005940208394196124</v>
       </c>
-      <c r="C124" s="4" t="n">
-        <v>39.97929274882475</v>
-      </c>
       <c r="D124" s="4" t="n">
-        <v>44.66665758819659</v>
+        <v>140.0207072511753</v>
       </c>
       <c r="E124" s="4" t="n">
+        <v>135.3333424118034</v>
+      </c>
+      <c r="F124" s="4" t="n">
         <v>4963.719016845796</v>
       </c>
-      <c r="F124" s="4" t="n">
+      <c r="G124" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="G124" s="4" t="n">
+      <c r="H124" s="4" t="n">
         <v>0.01169356466556859</v>
       </c>
-      <c r="H124" s="4" t="n">
+      <c r="I124" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I124" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>414.0576829268293</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>158.2159349593496</v>
+      </c>
+      <c r="M124" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4566,31 +6066,43 @@
           <t>TP4_Gota_0124.jpg</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="C125" s="3" t="n">
         <v>0.005988898626935437</v>
       </c>
-      <c r="C125" s="4" t="n">
-        <v>39.97929274882475</v>
-      </c>
       <c r="D125" s="4" t="n">
-        <v>44.66665758819659</v>
+        <v>140.0207072511753</v>
       </c>
       <c r="E125" s="4" t="n">
+        <v>135.3333424118034</v>
+      </c>
+      <c r="F125" s="4" t="n">
         <v>4963.719016845796</v>
       </c>
-      <c r="F125" s="4" t="n">
+      <c r="G125" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="G125" s="4" t="n">
+      <c r="H125" s="4" t="n">
         <v>0.01169356466556859</v>
       </c>
-      <c r="H125" s="4" t="n">
+      <c r="I125" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I125" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>414.0576829268293</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>158.2159349593496</v>
+      </c>
+      <c r="M125" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4599,31 +6111,43 @@
           <t>TP4_Gota_0125.jpg</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="C126" s="3" t="n">
         <v>0.006037588859674749</v>
       </c>
-      <c r="C126" s="4" t="n">
-        <v>39.37229711189661</v>
-      </c>
       <c r="D126" s="4" t="n">
-        <v>44.58856050227841</v>
+        <v>140.6277028881034</v>
       </c>
       <c r="E126" s="4" t="n">
+        <v>135.4114394977216</v>
+      </c>
+      <c r="F126" s="4" t="n">
         <v>5591.492513433685</v>
       </c>
-      <c r="F126" s="4" t="n">
+      <c r="G126" s="4" t="n">
         <v>5700.693364773428</v>
       </c>
-      <c r="G126" s="4" t="n">
+      <c r="H126" s="4" t="n">
         <v>0.009670479437510043</v>
       </c>
-      <c r="H126" s="4" t="n">
+      <c r="I126" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I126" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>414.0408943089431</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>158.1991463414634</v>
+      </c>
+      <c r="M126" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4632,31 +6156,43 @@
           <t>TP4_Gota_0126.jpg</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="C127" s="3" t="n">
         <v>0.006086279092414062</v>
       </c>
-      <c r="C127" s="4" t="n">
-        <v>39.97929274882475</v>
-      </c>
       <c r="D127" s="4" t="n">
-        <v>44.66665758819659</v>
+        <v>140.0207072511753</v>
       </c>
       <c r="E127" s="4" t="n">
+        <v>135.3333424118034</v>
+      </c>
+      <c r="F127" s="4" t="n">
         <v>4963.719016845796</v>
       </c>
-      <c r="F127" s="4" t="n">
+      <c r="G127" s="4" t="n">
         <v>5081.17968942668</v>
       </c>
-      <c r="G127" s="4" t="n">
+      <c r="H127" s="4" t="n">
         <v>0.01169356466556859</v>
       </c>
-      <c r="H127" s="4" t="n">
+      <c r="I127" s="4" t="n">
         <v>1.172932330827068</v>
       </c>
-      <c r="I127" s="2" t="inlineStr">
-        <is>
-          <t>Estático</t>
-        </is>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>Estático</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>414.0576829268293</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>158.2159349593496</v>
+      </c>
+      <c r="M127" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_completos2.xlsx
+++ b/resultados_completos2.xlsx
@@ -1303,10 +1303,10 @@
         <v>0.0008277339565683124</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>125.3567864921212</v>
+        <v>56.36782053045268</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>142.7782923467538</v>
+        <v>37.22170765324616</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>4435.301383583978</v>
@@ -1348,10 +1348,10 @@
         <v>0.0008764241893076249</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>173.4664512514535</v>
+        <v>72.11915379671761</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>131.6894084970054</v>
+        <v>97.90402424315285</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>5369.456448217998</v>
@@ -1393,10 +1393,10 @@
         <v>0.0009251144220469374</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>120.8776259453938</v>
+        <v>75.59432951072962</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>118.0813931156829</v>
+        <v>76.1782045880925</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>2372.249596393654</v>
@@ -1438,10 +1438,10 @@
         <v>0.0009738046547862498</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>117.9175360363652</v>
+        <v>81.91090235215309</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>130.876295738877</v>
+        <v>77.84990782831778</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>4690.162996666814</v>
@@ -1483,10 +1483,10 @@
         <v>0.001022494887525562</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>148.0478425220967</v>
+        <v>75.05032869518595</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>120.8542044010579</v>
+        <v>63.66491265248519</v>
       </c>
       <c r="F23" s="4" t="n">
         <v>4995.936757749108</v>
@@ -1528,10 +1528,10 @@
         <v>0.001071185120264875</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>128.9960627404478</v>
+        <v>91.88198613280457</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>172.2465264731974</v>
+        <v>64.96485056850594</v>
       </c>
       <c r="F24" s="4" t="n">
         <v>3160.90576910424</v>
@@ -1573,10 +1573,10 @@
         <v>0.001119875353004187</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>156.4723849130951</v>
+        <v>69.85922801952437</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>173.6620970671883</v>
+        <v>86.22101268634745</v>
       </c>
       <c r="F25" s="4" t="n">
         <v>2992.519750988854</v>
@@ -1618,10 +1618,10 @@
         <v>0.0011685655857435</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>174.8094777978255</v>
+        <v>34.89113064472173</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>177.0502615042311</v>
+        <v>55.96780322110369</v>
       </c>
       <c r="F26" s="4" t="n">
         <v>5759.548448582193</v>
@@ -1663,10 +1663,10 @@
         <v>0.001217255818482812</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>147.6283122231632</v>
+        <v>63.03266781819828</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>149.0860360613552</v>
+        <v>63.60955035960238</v>
       </c>
       <c r="F27" s="4" t="n">
         <v>4980.049077270169</v>
@@ -1708,10 +1708,10 @@
         <v>0.001265946051222125</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>121.1356240696213</v>
+        <v>72.42634910677897</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>145.591754096083</v>
+        <v>61.25000381312208</v>
       </c>
       <c r="F28" s="4" t="n">
         <v>5512.665327049359</v>
@@ -1753,10 +1753,10 @@
         <v>0.001314636283961437</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>122.2245882421035</v>
+        <v>57.77541175789652</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>125.6507670394379</v>
+        <v>60.70758544060437</v>
       </c>
       <c r="F29" s="4" t="n">
         <v>4660.985952408639</v>
@@ -1798,10 +1798,10 @@
         <v>0.00136332651670075</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>110.4986297794712</v>
+        <v>79.8890198942767</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>112.1156567758924</v>
+        <v>80.06900890330961</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>4592.833658289425</v>
@@ -1843,10 +1843,10 @@
         <v>0.001412016749440062</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>130.9765509410477</v>
+        <v>49.02344905895228</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>145.2574844696257</v>
+        <v>34.74251553037427</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>3371.439859706235</v>
@@ -1888,10 +1888,10 @@
         <v>0.001460706982179375</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>130.9198646121519</v>
+        <v>49.08013538784815</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>133.1462325465685</v>
+        <v>46.85376745343151</v>
       </c>
       <c r="F32" s="4" t="n">
         <v>5294.146178178601</v>
@@ -1933,10 +1933,10 @@
         <v>0.001509397214918687</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>121.3733319998305</v>
+        <v>58.75843872118708</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>144.1309647506189</v>
+        <v>35.86903524938102</v>
       </c>
       <c r="F33" s="4" t="n">
         <v>2787.24157330242</v>
@@ -1978,10 +1978,10 @@
         <v>0.001558087447658</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>134.494067152947</v>
+        <v>45.50593284705303</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>122.6972193004958</v>
+        <v>57.30278069950418</v>
       </c>
       <c r="F34" s="4" t="n">
         <v>4733.011590530138</v>
@@ -2023,10 +2023,10 @@
         <v>0.001606777680397312</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>145.4810451456834</v>
+        <v>48.8858144902793</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>129.6765899696187</v>
+        <v>50.32341003038126</v>
       </c>
       <c r="F35" s="4" t="n">
         <v>5582.650270653769</v>
@@ -2068,10 +2068,10 @@
         <v>0.001655467913136625</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>129.18276613817</v>
+        <v>50.81723386182998</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>144.4762881899848</v>
+        <v>35.52371181001518</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>4719.635583797555</v>
@@ -2113,10 +2113,10 @@
         <v>0.001704158145875937</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>141.1114753842346</v>
+        <v>38.88852461576539</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>127.7470241348622</v>
+        <v>52.25297586513778</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>4230.134637158292</v>
@@ -2158,10 +2158,10 @@
         <v>0.00175284837861525</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>147.2836176569644</v>
+        <v>55.27143557996209</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>127.1459994554926</v>
+        <v>52.85400054450742</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>4219.537018205736</v>
@@ -2203,10 +2203,10 @@
         <v>0.001801538611354562</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>128.0764644631184</v>
+        <v>51.92353553688159</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>126.9921644840031</v>
+        <v>53.00783551599687</v>
       </c>
       <c r="F39" s="4" t="n">
         <v>4193.007318261582</v>
@@ -2248,10 +2248,10 @@
         <v>0.001850228844093875</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>131.1695143876682</v>
+        <v>48.83048561233184</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>148.1920449281762</v>
+        <v>55.75668128884857</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>5233.258838459575</v>
@@ -2293,10 +2293,10 @@
         <v>0.001898919076833187</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>144.080535472958</v>
+        <v>54.16004394485321</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>127.6348464437531</v>
+        <v>52.36515355624686</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>3623.212724687402</v>
@@ -2338,10 +2338,10 @@
         <v>0.0019476093095725</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>122.4566941757057</v>
+        <v>57.62203889686648</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>126.1441267154467</v>
+        <v>72.41722722911625</v>
       </c>
       <c r="F42" s="4" t="n">
         <v>3981.121033917836</v>
@@ -2383,10 +2383,10 @@
         <v>0.001996299542311812</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>126.8832805279231</v>
+        <v>53.11671947207688</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>133.3000314692385</v>
+        <v>52.63318836406786</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>5252.289352125983</v>
@@ -2428,10 +2428,10 @@
         <v>0.002044989775051125</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>131.4495779946774</v>
+        <v>54.37070310879949</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>125.9606762245418</v>
+        <v>54.03932377545818</v>
       </c>
       <c r="F44" s="4" t="n">
         <v>4673.775936135275</v>
@@ -2473,10 +2473,10 @@
         <v>0.002093680007790437</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>129.3545542233183</v>
+        <v>70.50323804852854</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>141.3628717511622</v>
+        <v>38.6371282488378</v>
       </c>
       <c r="F45" s="4" t="n">
         <v>4575.481691453339</v>
@@ -2518,10 +2518,10 @@
         <v>0.00214237024052975</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>131.6180671251588</v>
+        <v>56.8523344722792</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>139.3407251748235</v>
+        <v>40.65927482517655</v>
       </c>
       <c r="F46" s="4" t="n">
         <v>4631.755549694278</v>
@@ -2563,10 +2563,10 @@
         <v>0.002191060473269062</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>150.6073119559041</v>
+        <v>61.95834874542307</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>136.0223520429641</v>
+        <v>43.97764795703586</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>6683.276317494438</v>
@@ -2608,10 +2608,10 @@
         <v>0.002239750706008375</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>144.1808953960646</v>
+        <v>41.28573457851226</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>154.1434603379575</v>
+        <v>43.88622948448926</v>
       </c>
       <c r="F48" s="4" t="n">
         <v>6161.115733292952</v>
@@ -2653,10 +2653,10 @@
         <v>0.002288440938747687</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>136.7711839229416</v>
+        <v>43.22881607705838</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>126.2821681395015</v>
+        <v>63.84753363216125</v>
       </c>
       <c r="F49" s="4" t="n">
         <v>4732.464680017116</v>
@@ -2698,10 +2698,10 @@
         <v>0.002337131171487</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>130.9451346376993</v>
+        <v>49.05486536230069</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>144.9201905036057</v>
+        <v>50.51996145456236</v>
       </c>
       <c r="F50" s="4" t="n">
         <v>4625.691283358196</v>
@@ -2743,10 +2743,10 @@
         <v>0.002385821404226312</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>130.4341659310547</v>
+        <v>49.56583406894532</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>132.5090050831733</v>
+        <v>47.49099491682672</v>
       </c>
       <c r="F51" s="4" t="n">
         <v>4538.516384301189</v>
@@ -2788,10 +2788,10 @@
         <v>0.002434511636965625</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>117.5052693820771</v>
+        <v>67.68865721418737</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>127.7064688937179</v>
+        <v>74.68053896501125</v>
       </c>
       <c r="F52" s="4" t="n">
         <v>3914.949147296112</v>
@@ -2833,10 +2833,10 @@
         <v>0.002483201869704937</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>132.2720172400791</v>
+        <v>47.72798275992088</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>145.351281175121</v>
+        <v>34.64871882487895</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>4585.017241364969</v>
@@ -2878,10 +2878,10 @@
         <v>0.00253189210244425</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>130.5424415127454</v>
+        <v>49.45755848725463</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>131.0162060215648</v>
+        <v>48.98379397843523</v>
       </c>
       <c r="F54" s="4" t="n">
         <v>2818.601310290618</v>
@@ -2923,10 +2923,10 @@
         <v>0.002580582335183562</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>133.9955534356428</v>
+        <v>46.00444656435715</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>123.2536202462625</v>
+        <v>59.31301480429947</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>4634.504224007361</v>
@@ -2968,10 +2968,10 @@
         <v>0.002629272567922875</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>129.9988424839874</v>
+        <v>78.25500375292724</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>146.6569005126042</v>
+        <v>33.34309948739582</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>6326.848836637468</v>
@@ -3013,10 +3013,10 @@
         <v>0.002677962800662187</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>134.0725669438482</v>
+        <v>45.92743305615181</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>126.4909590896606</v>
+        <v>53.50904091033942</v>
       </c>
       <c r="F57" s="4" t="n">
         <v>5195.029317829663</v>
@@ -3058,10 +3058,10 @@
         <v>0.0027266530334015</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>144.2315045871865</v>
+        <v>41.29976570603549</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>144.4230912677797</v>
+        <v>53.99152530542221</v>
       </c>
       <c r="F58" s="4" t="n">
         <v>6671.893538065419</v>
@@ -3103,10 +3103,10 @@
         <v>0.002775343266140812</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>127.0096887937642</v>
+        <v>56.62509320199337</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>132.0024280171385</v>
+        <v>47.99757198286152</v>
       </c>
       <c r="F59" s="4" t="n">
         <v>4479.545309356314</v>
@@ -3148,10 +3148,10 @@
         <v>0.002824033498880125</v>
       </c>
       <c r="D60" s="4" t="n">
-        <v>139.375168720377</v>
+        <v>40.62483127962304</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>130.3106563453863</v>
+        <v>49.68934365461372</v>
       </c>
       <c r="F60" s="4" t="n">
         <v>7511.909703316476</v>
@@ -3193,10 +3193,10 @@
         <v>0.002872723731619437</v>
       </c>
       <c r="D61" s="4" t="n">
-        <v>133.5368286441747</v>
+        <v>46.46317135582532</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>127.6186876288217</v>
+        <v>52.38131237117833</v>
       </c>
       <c r="F61" s="4" t="n">
         <v>5775.180340837151</v>
@@ -3238,10 +3238,10 @@
         <v>0.00292141396435875</v>
       </c>
       <c r="D62" s="4" t="n">
-        <v>134.9254517111387</v>
+        <v>45.07454828886128</v>
       </c>
       <c r="E62" s="4" t="n">
-        <v>144.7495050020877</v>
+        <v>64.26627830249663</v>
       </c>
       <c r="F62" s="4" t="n">
         <v>6923.793637674977</v>
@@ -3283,10 +3283,10 @@
         <v>0.002970104197098062</v>
       </c>
       <c r="D63" s="4" t="n">
-        <v>135.4535635831595</v>
+        <v>44.54643641684055</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>129.8382772737914</v>
+        <v>50.16172272620867</v>
       </c>
       <c r="F63" s="4" t="n">
         <v>5203.769671038803</v>
@@ -3328,10 +3328,10 @@
         <v>0.003018794429837374</v>
       </c>
       <c r="D64" s="4" t="n">
-        <v>151.9137026733557</v>
+        <v>60.90010221246858</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>150.2225403611282</v>
+        <v>59.29083028502702</v>
       </c>
       <c r="F64" s="4" t="n">
         <v>4816.999005747198</v>
@@ -3373,10 +3373,10 @@
         <v>0.003067484662576687</v>
       </c>
       <c r="D65" s="4" t="n">
-        <v>129.1572284624399</v>
+        <v>50.84277153756005</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>135.8865064261315</v>
+        <v>44.28513149705596</v>
       </c>
       <c r="F65" s="4" t="n">
         <v>5119.186837607598</v>
@@ -3418,10 +3418,10 @@
         <v>0.003116174895315999</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>126.1850797890255</v>
+        <v>64.6013374827085</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>128.13857481983</v>
+        <v>54.631042400591</v>
       </c>
       <c r="F66" s="4" t="n">
         <v>6371.776858319729</v>
@@ -3463,10 +3463,10 @@
         <v>0.003164865128055312</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>140.5423442560995</v>
+        <v>39.45765574390046</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>147.8590632134625</v>
+        <v>39.72760449015342</v>
       </c>
       <c r="F67" s="4" t="n">
         <v>5071.023530989044</v>
@@ -3508,10 +3508,10 @@
         <v>0.003213555360794625</v>
       </c>
       <c r="D68" s="4" t="n">
-        <v>140.5407169488854</v>
+        <v>39.4592830511146</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>133.2189394375346</v>
+        <v>46.78106056246536</v>
       </c>
       <c r="F68" s="4" t="n">
         <v>6871.746065431752</v>
@@ -3553,10 +3553,10 @@
         <v>0.003262245593533937</v>
       </c>
       <c r="D69" s="4" t="n">
-        <v>132.9600578282974</v>
+        <v>47.03994217170256</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>126.3383830122808</v>
+        <v>74.11144029890379</v>
       </c>
       <c r="F69" s="4" t="n">
         <v>6324.986951011158</v>
@@ -3598,10 +3598,10 @@
         <v>0.00331093582627325</v>
       </c>
       <c r="D70" s="4" t="n">
-        <v>141.3009922997216</v>
+        <v>44.96881929824355</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>154.5346070979238</v>
+        <v>43.532290421323</v>
       </c>
       <c r="F70" s="4" t="n">
         <v>4807.028900683371</v>
@@ -3643,10 +3643,10 @@
         <v>0.003359626059012562</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>127.097164146037</v>
+        <v>83.0670139165078</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>147.8920515133777</v>
+        <v>47.7066797149462</v>
       </c>
       <c r="F71" s="4" t="n">
         <v>6797.723712822246</v>
@@ -3688,10 +3688,10 @@
         <v>0.003408316291751875</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>129.7820247044693</v>
+        <v>69.4784484166445</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>125.8032895561656</v>
+        <v>58.51854325811379</v>
       </c>
       <c r="F72" s="4" t="n">
         <v>5107.818531192982</v>
@@ -3733,10 +3733,10 @@
         <v>0.003457006524491187</v>
       </c>
       <c r="D73" s="4" t="n">
-        <v>124.3803848697512</v>
+        <v>59.84093990294052</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>124.9216761760869</v>
+        <v>59.11273386171262</v>
       </c>
       <c r="F73" s="4" t="n">
         <v>4501.40298912117</v>
@@ -3778,10 +3778,10 @@
         <v>0.0035056967572305</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>130.1221015342761</v>
+        <v>49.87789846572386</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>131.6773918648184</v>
+        <v>48.32260813518162</v>
       </c>
       <c r="F74" s="4" t="n">
         <v>4534.442066868653</v>
@@ -3823,10 +3823,10 @@
         <v>0.003554386989969812</v>
       </c>
       <c r="D75" s="4" t="n">
-        <v>133.8220353257278</v>
+        <v>46.1779646742722</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>126.8002116369845</v>
+        <v>56.73283402257238</v>
       </c>
       <c r="F75" s="4" t="n">
         <v>4549.062634213675</v>
@@ -3868,10 +3868,10 @@
         <v>0.003603077222709125</v>
       </c>
       <c r="D76" s="4" t="n">
-        <v>134.0731118833994</v>
+        <v>45.92688811660059</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>126.8298544984211</v>
+        <v>56.70656359494975</v>
       </c>
       <c r="F76" s="4" t="n">
         <v>4557.322445661486</v>
@@ -3913,10 +3913,10 @@
         <v>0.003651767455448437</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>140.6255562368994</v>
+        <v>39.37444376310057</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>143.9792198837613</v>
+        <v>55.88279878137751</v>
       </c>
       <c r="F77" s="4" t="n">
         <v>5108.712632393894</v>
@@ -3958,10 +3958,10 @@
         <v>0.00370045768818775</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>137.1087370375693</v>
+        <v>46.85721186918988</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>140.8611472018607</v>
+        <v>50.62775842619559</v>
       </c>
       <c r="F78" s="4" t="n">
         <v>4497.45877348955</v>
@@ -4003,10 +4003,10 @@
         <v>0.003749147920927062</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>135.4408166280865</v>
+        <v>44.55918337191352</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>135.6903559364382</v>
+        <v>44.30964406356176</v>
       </c>
       <c r="F79" s="4" t="n">
         <v>3967.219224236062</v>
@@ -4048,10 +4048,10 @@
         <v>0.003797838153666374</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>135.4744494192277</v>
+        <v>44.52555058077235</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>135.434360128867</v>
+        <v>44.56563987113299</v>
       </c>
       <c r="F80" s="4" t="n">
         <v>4520.654520322537</v>
@@ -4093,10 +4093,10 @@
         <v>0.003846528386405687</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>134.1628628000337</v>
+        <v>45.83713719996632</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>135.4149879342412</v>
+        <v>44.58501206575884</v>
       </c>
       <c r="F81" s="4" t="n">
         <v>5800.980995497396</v>
@@ -4138,10 +4138,10 @@
         <v>0.003895218619144999</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>134.162666007839</v>
+        <v>45.83733399216098</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>135.0552346150353</v>
+        <v>44.94476538496466</v>
       </c>
       <c r="F82" s="4" t="n">
         <v>5214.506555114493</v>
@@ -4183,10 +4183,10 @@
         <v>0.003943908851884312</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>135.4743903497517</v>
+        <v>44.5256096502483</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>135.577742731699</v>
+        <v>44.42225726830095</v>
       </c>
       <c r="F83" s="4" t="n">
         <v>5214.506555114494</v>
@@ -4228,10 +4228,10 @@
         <v>0.003992599084623624</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>133.6904229494339</v>
+        <v>46.30957705056611</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>135.0923687069481</v>
+        <v>44.90763129305191</v>
       </c>
       <c r="F84" s="4" t="n">
         <v>3942.402885339457</v>
@@ -4273,10 +4273,10 @@
         <v>0.004041289317362937</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>134.1638001466216</v>
+        <v>45.83619985337836</v>
       </c>
       <c r="E85" s="4" t="n">
-        <v>135.5441053942518</v>
+        <v>44.45589460574814</v>
       </c>
       <c r="F85" s="4" t="n">
         <v>4586.6960380723</v>
@@ -4318,10 +4318,10 @@
         <v>0.00408997955010225</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>134.1620463875921</v>
+        <v>45.83795361240792</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>135.087041781348</v>
+        <v>44.91295821865202</v>
       </c>
       <c r="F86" s="4" t="n">
         <v>4586.6960380723</v>
@@ -4363,10 +4363,10 @@
         <v>0.004138669782841562</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>135.4743904010518</v>
+        <v>44.52560959894819</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>135.577742731699</v>
+        <v>44.42225726830095</v>
       </c>
       <c r="F87" s="4" t="n">
         <v>5214.469534660189</v>
@@ -4408,10 +4408,10 @@
         <v>0.004187360015580874</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>135.1135849188015</v>
+        <v>44.88641508119849</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>132.0668754608547</v>
+        <v>47.93312453914525</v>
       </c>
       <c r="F88" s="4" t="n">
         <v>3876.324418820328</v>
@@ -4453,10 +4453,10 @@
         <v>0.004236050248320187</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>135.4399358965277</v>
+        <v>44.56006410347234</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>135.4500038894421</v>
+        <v>44.54999611055791</v>
       </c>
       <c r="F89" s="4" t="n">
         <v>3934.143059485331</v>
@@ -4498,10 +4498,10 @@
         <v>0.004284740481059499</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>141.6102461218443</v>
+        <v>38.38975387815572</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>135.4500038894421</v>
+        <v>44.54999611055791</v>
       </c>
       <c r="F90" s="4" t="n">
         <v>4464.382608738821</v>
@@ -4543,10 +4543,10 @@
         <v>0.004333430713798812</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>133.8798858161594</v>
+        <v>46.12011418384063</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>135.4413174249659</v>
+        <v>44.5586825750341</v>
       </c>
       <c r="F91" s="4" t="n">
         <v>5034.337464661706</v>
@@ -4588,10 +4588,10 @@
         <v>0.004382120946538125</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>133.8798858161594</v>
+        <v>46.12011418384063</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>135.3989107605011</v>
+        <v>44.60108923949892</v>
       </c>
       <c r="F92" s="4" t="n">
         <v>5034.337464661706</v>
@@ -4633,10 +4633,10 @@
         <v>0.004430811179277437</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>138.8957253233185</v>
+        <v>41.10427467668148</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>135.3989107605011</v>
+        <v>44.60108923949892</v>
       </c>
       <c r="F93" s="4" t="n">
         <v>5050.857049121722</v>
@@ -4678,10 +4678,10 @@
         <v>0.004479501412016749</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>138.8957253233185</v>
+        <v>41.10427467668148</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>135.4320541982615</v>
+        <v>44.56794580173843</v>
       </c>
       <c r="F94" s="4" t="n">
         <v>5050.857049121722</v>
@@ -4723,10 +4723,10 @@
         <v>0.004528191644756062</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>136.3261103422276</v>
+        <v>43.67388965777243</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>135.3416261726159</v>
+        <v>44.65837382738406</v>
       </c>
       <c r="F95" s="4" t="n">
         <v>5620.811905044607</v>
@@ -4768,10 +4768,10 @@
         <v>0.004576881877495375</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>140.6082923357488</v>
+        <v>39.39170766425124</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>135.4309777023329</v>
+        <v>44.56902229766706</v>
       </c>
       <c r="F96" s="4" t="n">
         <v>6232.06576394895</v>
@@ -4813,10 +4813,10 @@
         <v>0.004625572110234687</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>136.3261103422276</v>
+        <v>43.67388965777243</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F97" s="4" t="n">
         <v>5620.811905044607</v>
@@ -4858,10 +4858,10 @@
         <v>0.004674262342973999</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>136.4096838425064</v>
+        <v>43.59031615749365</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F98" s="4" t="n">
         <v>5620.811905044606</v>
@@ -4903,10 +4903,10 @@
         <v>0.004722952575713312</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>136.3261103422276</v>
+        <v>43.67388965777243</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F99" s="4" t="n">
         <v>5620.811905044607</v>
@@ -4948,10 +4948,10 @@
         <v>0.004771642808452625</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>140.6082923357488</v>
+        <v>39.39170766425124</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>135.4309777023329</v>
+        <v>44.56902229766706</v>
       </c>
       <c r="F100" s="4" t="n">
         <v>6232.06576394895</v>
@@ -4993,10 +4993,10 @@
         <v>0.004820333041191937</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>138.9119327748288</v>
+        <v>41.08806722517119</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>135.4309381835807</v>
+        <v>44.56906181641924</v>
       </c>
       <c r="F101" s="4" t="n">
         <v>5620.811905044607</v>
@@ -5038,10 +5038,10 @@
         <v>0.004869023273931249</v>
       </c>
       <c r="D102" s="4" t="n">
-        <v>140.6082923357488</v>
+        <v>39.39170766425124</v>
       </c>
       <c r="E102" s="4" t="n">
-        <v>135.4309777023329</v>
+        <v>44.56902229766706</v>
       </c>
       <c r="F102" s="4" t="n">
         <v>6232.06576394895</v>
@@ -5083,10 +5083,10 @@
         <v>0.004917713506670562</v>
       </c>
       <c r="D103" s="4" t="n">
-        <v>140.5322498834716</v>
+        <v>39.46775011652841</v>
       </c>
       <c r="E103" s="4" t="n">
-        <v>135.4377570440274</v>
+        <v>44.56224295597259</v>
       </c>
       <c r="F103" s="4" t="n">
         <v>6232.06576394895</v>
@@ -5128,10 +5128,10 @@
         <v>0.004966403739409875</v>
       </c>
       <c r="D104" s="4" t="n">
-        <v>140.5211290061207</v>
+        <v>39.4788709938793</v>
       </c>
       <c r="E104" s="4" t="n">
-        <v>135.4309777023329</v>
+        <v>44.56902229766706</v>
       </c>
       <c r="F104" s="4" t="n">
         <v>6215.546179488935</v>
@@ -5173,10 +5173,10 @@
         <v>0.005015093972149187</v>
       </c>
       <c r="D105" s="4" t="n">
-        <v>136.4096838425064</v>
+        <v>43.59031615749365</v>
       </c>
       <c r="E105" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F105" s="4" t="n">
         <v>5620.811905044606</v>
@@ -5218,10 +5218,10 @@
         <v>0.005063784204888499</v>
       </c>
       <c r="D106" s="4" t="n">
-        <v>140.5636151345851</v>
+        <v>39.43638486541491</v>
       </c>
       <c r="E106" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F106" s="4" t="n">
         <v>5604.292320584591</v>
@@ -5263,10 +5263,10 @@
         <v>0.005112474437627812</v>
       </c>
       <c r="D107" s="4" t="n">
-        <v>140.6021744313674</v>
+        <v>39.39782556863256</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>135.4309381835807</v>
+        <v>44.56906181641924</v>
       </c>
       <c r="F107" s="4" t="n">
         <v>5604.292320584591</v>
@@ -5308,10 +5308,10 @@
         <v>0.005161164670367124</v>
       </c>
       <c r="D108" s="4" t="n">
-        <v>140.5197374013154</v>
+        <v>39.48026259868462</v>
       </c>
       <c r="E108" s="4" t="n">
-        <v>135.4309777023329</v>
+        <v>44.56902229766706</v>
       </c>
       <c r="F108" s="4" t="n">
         <v>6215.156559923561</v>
@@ -5353,10 +5353,10 @@
         <v>0.005209854903106437</v>
       </c>
       <c r="D109" s="4" t="n">
-        <v>140.5849534994058</v>
+        <v>39.41504650059423</v>
       </c>
       <c r="E109" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F109" s="4" t="n">
         <v>5608.401620774829</v>
@@ -5398,10 +5398,10 @@
         <v>0.005258545135845749</v>
       </c>
       <c r="D110" s="4" t="n">
-        <v>140.5636151345851</v>
+        <v>39.43638486541491</v>
       </c>
       <c r="E110" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F110" s="4" t="n">
         <v>5604.292320584591</v>
@@ -5443,10 +5443,10 @@
         <v>0.005307235368585062</v>
       </c>
       <c r="D111" s="4" t="n">
-        <v>140.5636151345851</v>
+        <v>39.43638486541491</v>
       </c>
       <c r="E111" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F111" s="4" t="n">
         <v>5604.292320584591</v>
@@ -5488,10 +5488,10 @@
         <v>0.005355925601324374</v>
       </c>
       <c r="D112" s="4" t="n">
-        <v>140.5638937517798</v>
+        <v>39.4361062482202</v>
       </c>
       <c r="E112" s="4" t="n">
-        <v>135.4309777023329</v>
+        <v>44.56902229766706</v>
       </c>
       <c r="F112" s="4" t="n">
         <v>6198.63707214779</v>
@@ -5533,10 +5533,10 @@
         <v>0.005404615834063687</v>
       </c>
       <c r="D113" s="4" t="n">
-        <v>140.6021905365546</v>
+        <v>39.39780946344538</v>
       </c>
       <c r="E113" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F113" s="4" t="n">
         <v>5587.772832808821</v>
@@ -5578,10 +5578,10 @@
         <v>0.005453306066803</v>
       </c>
       <c r="D114" s="4" t="n">
-        <v>140.5259520796074</v>
+        <v>39.47404792039259</v>
       </c>
       <c r="E114" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F114" s="4" t="n">
         <v>5587.383213243446</v>
@@ -5623,10 +5623,10 @@
         <v>0.005501996299542311</v>
       </c>
       <c r="D115" s="4" t="n">
-        <v>140.6021905365546</v>
+        <v>39.39780946344538</v>
       </c>
       <c r="E115" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F115" s="4" t="n">
         <v>5587.772832808821</v>
@@ -5668,10 +5668,10 @@
         <v>0.005550686532281624</v>
       </c>
       <c r="D116" s="4" t="n">
-        <v>140.6505686993268</v>
+        <v>39.34943130067325</v>
       </c>
       <c r="E116" s="4" t="n">
-        <v>135.4309381835807</v>
+        <v>44.56906181641924</v>
       </c>
       <c r="F116" s="4" t="n">
         <v>5591.882132999059</v>
@@ -5713,10 +5713,10 @@
         <v>0.005599376765020937</v>
       </c>
       <c r="D117" s="4" t="n">
-        <v>140.5259520796074</v>
+        <v>39.47404792039259</v>
       </c>
       <c r="E117" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F117" s="4" t="n">
         <v>5587.383213243446</v>
@@ -5758,10 +5758,10 @@
         <v>0.00564806699776025</v>
       </c>
       <c r="D118" s="4" t="n">
-        <v>140.5259520796074</v>
+        <v>39.47404792039259</v>
       </c>
       <c r="E118" s="4" t="n">
-        <v>135.4377632679669</v>
+        <v>44.56223673203312</v>
       </c>
       <c r="F118" s="4" t="n">
         <v>5587.383213243446</v>
@@ -5803,10 +5803,10 @@
         <v>0.005696757230499561</v>
       </c>
       <c r="D119" s="4" t="n">
-        <v>141.4687374081274</v>
+        <v>38.53126259187263</v>
       </c>
       <c r="E119" s="4" t="n">
-        <v>135.3333424118034</v>
+        <v>44.66665758819659</v>
       </c>
       <c r="F119" s="4" t="n">
         <v>4959.609716655558</v>
@@ -5848,10 +5848,10 @@
         <v>0.005745447463238874</v>
       </c>
       <c r="D120" s="4" t="n">
-        <v>140.0207072511753</v>
+        <v>39.97929274882475</v>
       </c>
       <c r="E120" s="4" t="n">
-        <v>135.3333424118034</v>
+        <v>44.66665758819659</v>
       </c>
       <c r="F120" s="4" t="n">
         <v>4963.719016845796</v>
@@ -5893,10 +5893,10 @@
         <v>0.005794137695978187</v>
       </c>
       <c r="D121" s="4" t="n">
-        <v>140.6277028881034</v>
+        <v>39.37229711189661</v>
       </c>
       <c r="E121" s="4" t="n">
-        <v>135.4095201333564</v>
+        <v>44.59047986664363</v>
       </c>
       <c r="F121" s="4" t="n">
         <v>5591.492513433685</v>
@@ -5938,10 +5938,10 @@
         <v>0.0058428279287175</v>
       </c>
       <c r="D122" s="4" t="n">
-        <v>140.0207072511753</v>
+        <v>39.97929274882475</v>
       </c>
       <c r="E122" s="4" t="n">
-        <v>135.3333424118034</v>
+        <v>44.66665758819659</v>
       </c>
       <c r="F122" s="4" t="n">
         <v>4963.719016845796</v>
@@ -5983,10 +5983,10 @@
         <v>0.005891518161456812</v>
       </c>
       <c r="D123" s="4" t="n">
-        <v>140.0207072511753</v>
+        <v>39.97929274882475</v>
       </c>
       <c r="E123" s="4" t="n">
-        <v>135.3333424118034</v>
+        <v>44.66665758819659</v>
       </c>
       <c r="F123" s="4" t="n">
         <v>4963.719016845796</v>
@@ -6028,10 +6028,10 @@
         <v>0.005940208394196124</v>
       </c>
       <c r="D124" s="4" t="n">
-        <v>140.0207072511753</v>
+        <v>39.97929274882475</v>
       </c>
       <c r="E124" s="4" t="n">
-        <v>135.3333424118034</v>
+        <v>44.66665758819659</v>
       </c>
       <c r="F124" s="4" t="n">
         <v>4963.719016845796</v>
@@ -6073,10 +6073,10 @@
         <v>0.005988898626935437</v>
       </c>
       <c r="D125" s="4" t="n">
-        <v>140.0207072511753</v>
+        <v>39.97929274882475</v>
       </c>
       <c r="E125" s="4" t="n">
-        <v>135.3333424118034</v>
+        <v>44.66665758819659</v>
       </c>
       <c r="F125" s="4" t="n">
         <v>4963.719016845796</v>
@@ -6118,10 +6118,10 @@
         <v>0.006037588859674749</v>
       </c>
       <c r="D126" s="4" t="n">
-        <v>140.6277028881034</v>
+        <v>39.37229711189661</v>
       </c>
       <c r="E126" s="4" t="n">
-        <v>135.4114394977216</v>
+        <v>44.58856050227841</v>
       </c>
       <c r="F126" s="4" t="n">
         <v>5591.492513433685</v>
@@ -6163,10 +6163,10 @@
         <v>0.006086279092414062</v>
       </c>
       <c r="D127" s="4" t="n">
-        <v>140.0207072511753</v>
+        <v>39.97929274882475</v>
       </c>
       <c r="E127" s="4" t="n">
-        <v>135.3333424118034</v>
+        <v>44.66665758819659</v>
       </c>
       <c r="F127" s="4" t="n">
         <v>4963.719016845796</v>
